--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9995851448923947</v>
+      </c>
+      <c r="D3">
+        <v>1.00026043763021</v>
+      </c>
+      <c r="E3">
         <v>0.9999676496748842</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9998861707445811</v>
+      </c>
+      <c r="G3">
         <v>1.000425132604155</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0.9998526432127123</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>0.9999676496748842</v>
-      </c>
-      <c r="G3">
-        <v>0.9995851448923947</v>
-      </c>
-      <c r="H3">
-        <v>1.00026043763021</v>
-      </c>
-      <c r="I3">
-        <v>0.9998861707445811</v>
       </c>
       <c r="J3">
         <v>1.000425132604155</v>
@@ -728,7 +680,7 @@
         <v>0.9999961964598229</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9991959013715082</v>
+      </c>
+      <c r="D4">
+        <v>1.000502673350892</v>
+      </c>
+      <c r="E4">
         <v>0.9999404946508784</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.9997804536747621</v>
+      </c>
+      <c r="G4">
         <v>1.000818901668991</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>0.9997145984479388</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>0.9999404946508784</v>
-      </c>
-      <c r="G4">
-        <v>0.9991959013715082</v>
-      </c>
-      <c r="H4">
-        <v>1.000502673350892</v>
-      </c>
-      <c r="I4">
-        <v>0.9997804536747621</v>
       </c>
       <c r="J4">
         <v>1.000818901668991</v>
@@ -790,7 +742,7 @@
         <v>0.9999921705274953</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9984835178614564</v>
+      </c>
+      <c r="D5">
+        <v>1.000964069447401</v>
+      </c>
+      <c r="E5">
         <v>0.9998635882044581</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9995777575009115</v>
+      </c>
+      <c r="G5">
         <v>1.001583090482495</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>0.9994601391169219</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>0.9998635882044581</v>
-      </c>
-      <c r="G5">
-        <v>0.9984835178614565</v>
-      </c>
-      <c r="H5">
-        <v>1.000964069447401</v>
-      </c>
-      <c r="I5">
-        <v>0.9995777575009115</v>
       </c>
       <c r="J5">
         <v>1.001583090482495</v>
@@ -852,7 +804,7 @@
         <v>0.9999886937689406</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9977873551350782</v>
+      </c>
+      <c r="D6">
+        <v>1.001414337194528</v>
+      </c>
+      <c r="E6">
         <v>0.9997893823956886</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9993799917873992</v>
+      </c>
+      <c r="G6">
         <v>1.002328388795087</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.9992115258503388</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>0.9997893823956886</v>
-      </c>
-      <c r="G6">
-        <v>0.9977873551350782</v>
-      </c>
-      <c r="H6">
-        <v>1.001414337194528</v>
-      </c>
-      <c r="I6">
-        <v>0.9993799917873992</v>
       </c>
       <c r="J6">
         <v>1.002328388795087</v>
@@ -914,7 +866,7 @@
         <v>0.9999851635263534</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999944605497945</v>
+      </c>
+      <c r="D7">
+        <v>1.000009717478147</v>
+      </c>
+      <c r="E7">
         <v>0.9999901719335804</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>0.9999952945840511</v>
+      </c>
+      <c r="G7">
         <v>1.000020713029155</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>0.999997405424268</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>0.9999901719335804</v>
-      </c>
-      <c r="G7">
-        <v>0.9999944605497947</v>
-      </c>
-      <c r="H7">
-        <v>1.000009717478147</v>
-      </c>
-      <c r="I7">
-        <v>0.9999952945840511</v>
       </c>
       <c r="J7">
         <v>1.000020713029155</v>
@@ -976,7 +928,7 @@
         <v>1.000001293833166</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999928496042755</v>
+        <v>1.000016712465768</v>
       </c>
       <c r="D8">
-        <v>0.9999964021219447</v>
+        <v>0.9999951223916688</v>
       </c>
       <c r="E8">
+        <v>0.9999928496042751</v>
+      </c>
+      <c r="F8">
+        <v>1.000001719392221</v>
+      </c>
+      <c r="G8">
+        <v>0.9999964021219445</v>
+      </c>
+      <c r="H8">
         <v>1.00000537225225</v>
       </c>
-      <c r="F8">
-        <v>0.9999928496042755</v>
-      </c>
-      <c r="G8">
-        <v>1.000016712465768</v>
-      </c>
-      <c r="H8">
-        <v>0.9999951223916688</v>
-      </c>
       <c r="I8">
-        <v>1.000001719392221</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="J8">
-        <v>0.9999964021219447</v>
+        <v>0.9999964021219445</v>
       </c>
       <c r="K8">
-        <v>0.9999928496042755</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="L8">
         <v>1.00000537225225</v>
@@ -1020,25 +972,25 @@
         <v>1.000000887187097</v>
       </c>
       <c r="O8">
-        <v>0.9999989655886212</v>
+        <v>0.9999989655886209</v>
       </c>
       <c r="P8">
-        <v>0.9999982079928235</v>
+        <v>0.9999982079928231</v>
       </c>
       <c r="Q8">
         <v>0.9999982079928232</v>
       </c>
       <c r="R8">
-        <v>0.9999968683956864</v>
+        <v>0.9999968683956862</v>
       </c>
       <c r="S8">
-        <v>0.9999968683956864</v>
+        <v>0.9999968683956862</v>
       </c>
       <c r="T8">
         <v>1.000001363038021</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00002490069097</v>
+      </c>
+      <c r="D9">
+        <v>0.9999827184037154</v>
+      </c>
+      <c r="E9">
         <v>1.000004426874503</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000007671651667</v>
+      </c>
+      <c r="G9">
         <v>0.9999705081445442</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.000009010290236</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.000004426874503</v>
-      </c>
-      <c r="G9">
-        <v>1.00002490069097</v>
-      </c>
-      <c r="H9">
-        <v>0.9999827184037154</v>
-      </c>
-      <c r="I9">
-        <v>1.000007671651667</v>
       </c>
       <c r="J9">
         <v>0.9999705081445442</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999998726759394</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000053497859648</v>
+      </c>
+      <c r="D10">
+        <v>0.9999743825599502</v>
+      </c>
+      <c r="E10">
         <v>0.9999921744156768</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.000010611475552</v>
+      </c>
+      <c r="G10">
         <v>0.9999643740962935</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.000018202536857</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>0.9999921744156768</v>
-      </c>
-      <c r="G10">
-        <v>1.000053497859648</v>
-      </c>
-      <c r="H10">
-        <v>0.9999743825599502</v>
-      </c>
-      <c r="I10">
-        <v>1.000010611475552</v>
       </c>
       <c r="J10">
         <v>0.9999643740962935</v>
@@ -1162,7 +1114,7 @@
         <v>1.00000220715733</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000105796886436</v>
+      </c>
+      <c r="D11">
+        <v>0.9999164518904283</v>
+      </c>
+      <c r="E11">
         <v>1.000034052594363</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.000037766315178</v>
+      </c>
+      <c r="G11">
         <v>0.9998502997670237</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.000039299704931</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>1.000034052594363</v>
-      </c>
-      <c r="G11">
-        <v>1.000105796886436</v>
-      </c>
-      <c r="H11">
-        <v>0.9999164518904283</v>
-      </c>
-      <c r="I11">
-        <v>1.000037766315178</v>
       </c>
       <c r="J11">
         <v>0.9998502997670237</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999972778597265</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9908157064730219</v>
+      </c>
+      <c r="D12">
+        <v>1.005175014157324</v>
+      </c>
+      <c r="E12">
         <v>1.000173421036279</v>
       </c>
-      <c r="D12">
-        <v>1.007988395317167</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
+        <v>0.9977814163223373</v>
+      </c>
+      <c r="G12">
+        <v>1.007988395317166</v>
+      </c>
+      <c r="H12">
         <v>0.9967970559290056</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>1.000173421036279</v>
       </c>
-      <c r="G12">
-        <v>0.9908157064730219</v>
-      </c>
-      <c r="H12">
-        <v>1.005175014157324</v>
-      </c>
-      <c r="I12">
-        <v>0.9977814163223373</v>
-      </c>
       <c r="J12">
-        <v>1.007988395317167</v>
+        <v>1.007988395317166</v>
       </c>
       <c r="K12">
         <v>1.000173421036279</v>
@@ -1286,7 +1238,7 @@
         <v>0.999788501539189</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9995216663381363</v>
+      </c>
+      <c r="D13">
+        <v>1.0014123192332</v>
+      </c>
+      <c r="E13">
         <v>0.9982879551372378</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9993013918100259</v>
+      </c>
+      <c r="G13">
         <v>1.003169771622784</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.9997184477764984</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.9982879551372378</v>
-      </c>
-      <c r="G13">
-        <v>0.9995216663381363</v>
-      </c>
-      <c r="H13">
-        <v>1.0014123192332</v>
-      </c>
-      <c r="I13">
-        <v>0.9993013918100259</v>
       </c>
       <c r="J13">
         <v>1.003169771622784</v>
@@ -1348,7 +1300,7 @@
         <v>1.00023525865298</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9918406681397253</v>
+        <v>0.9864199826982532</v>
       </c>
       <c r="D14">
+        <v>1.013239886451313</v>
+      </c>
+      <c r="E14">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="F14">
+        <v>0.9938685269952762</v>
+      </c>
+      <c r="G14">
         <v>1.025276946413416</v>
       </c>
-      <c r="E14">
-        <v>0.9947030378372954</v>
-      </c>
-      <c r="F14">
-        <v>0.9918406681397253</v>
-      </c>
-      <c r="G14">
-        <v>0.9864199826982532</v>
-      </c>
       <c r="H14">
-        <v>1.013239886451313</v>
+        <v>0.9947030378372953</v>
       </c>
       <c r="I14">
-        <v>0.9938685269952762</v>
+        <v>0.9918406681397252</v>
       </c>
       <c r="J14">
         <v>1.025276946413416</v>
       </c>
       <c r="K14">
-        <v>0.9918406681397253</v>
+        <v>0.9918406681397252</v>
       </c>
       <c r="L14">
-        <v>0.9947030378372954</v>
+        <v>0.9947030378372953</v>
       </c>
       <c r="M14">
         <v>1.009989992125356</v>
@@ -1401,16 +1353,16 @@
         <v>1.003940217463479</v>
       </c>
       <c r="R14">
-        <v>1.000915330132541</v>
+        <v>1.00091533013254</v>
       </c>
       <c r="S14">
-        <v>1.000915330132541</v>
+        <v>1.00091533013254</v>
       </c>
       <c r="T14">
         <v>1.000891508089213</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9992406048142195</v>
+        <v>0.9946916969662245</v>
       </c>
       <c r="D15">
+        <v>1.003561834144572</v>
+      </c>
+      <c r="E15">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="F15">
+        <v>0.9984264925585583</v>
+      </c>
+      <c r="G15">
         <v>1.005992520644222</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9980914665711585</v>
       </c>
-      <c r="F15">
-        <v>0.9992406048142195</v>
-      </c>
-      <c r="G15">
-        <v>0.9946916969662245</v>
-      </c>
-      <c r="H15">
-        <v>1.003561834144572</v>
-      </c>
       <c r="I15">
-        <v>0.9984264925585584</v>
+        <v>0.9992406048142194</v>
       </c>
       <c r="J15">
         <v>1.005992520644222</v>
       </c>
       <c r="K15">
-        <v>0.9992406048142195</v>
+        <v>0.9992406048142194</v>
       </c>
       <c r="L15">
         <v>0.9980914665711585</v>
@@ -1472,7 +1424,7 @@
         <v>1.000000769283159</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999716016436384</v>
+        <v>0.9921613886077129</v>
       </c>
       <c r="D16">
-        <v>1.000019148909126</v>
+        <v>1.005081496893171</v>
       </c>
       <c r="E16">
-        <v>1.000008330587633</v>
+        <v>0.9991468971105875</v>
       </c>
       <c r="F16">
-        <v>0.9999716016436384</v>
+        <v>0.9977673292555678</v>
       </c>
       <c r="G16">
-        <v>1.000029212484039</v>
+        <v>1.008419711366302</v>
       </c>
       <c r="H16">
-        <v>1.000002030932869</v>
+        <v>0.9971996103968422</v>
       </c>
       <c r="I16">
-        <v>0.9999976204692184</v>
+        <v>0.9991468971105875</v>
       </c>
       <c r="J16">
-        <v>1.000019148909126</v>
+        <v>1.008419711366302</v>
       </c>
       <c r="K16">
-        <v>0.9999716016436384</v>
+        <v>0.9991468971105875</v>
       </c>
       <c r="L16">
-        <v>1.000008330587633</v>
+        <v>0.9971996103968422</v>
       </c>
       <c r="M16">
-        <v>1.00001373974838</v>
+        <v>1.002809660881572</v>
       </c>
       <c r="N16">
-        <v>1.00001373974838</v>
+        <v>1.002809660881572</v>
       </c>
       <c r="O16">
-        <v>1.000009836809876</v>
+        <v>1.003566939552105</v>
       </c>
       <c r="P16">
-        <v>0.999999693713466</v>
+        <v>1.001588739624577</v>
       </c>
       <c r="Q16">
-        <v>0.999999693713466</v>
+        <v>1.001588739624577</v>
       </c>
       <c r="R16">
-        <v>0.9999926706960091</v>
+        <v>1.00097827899608</v>
       </c>
       <c r="S16">
-        <v>0.9999926706960091</v>
+        <v>1.00097827899608</v>
       </c>
       <c r="T16">
-        <v>1.000004657504421</v>
+        <v>0.9999627389383638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000018248711243</v>
+        <v>0.9941029196603772</v>
       </c>
       <c r="D17">
-        <v>1.000024207286458</v>
+        <v>1.004154239381264</v>
       </c>
       <c r="E17">
-        <v>0.9999804484415865</v>
+        <v>0.9988591517921382</v>
       </c>
       <c r="F17">
-        <v>1.000018248711243</v>
+        <v>0.9981512695041522</v>
       </c>
       <c r="G17">
-        <v>0.9999406635852379</v>
+        <v>1.007132727790734</v>
       </c>
       <c r="H17">
-        <v>1.000022061111986</v>
+        <v>0.9978599638167654</v>
       </c>
       <c r="I17">
-        <v>0.9999914666931237</v>
+        <v>0.9988591517921382</v>
       </c>
       <c r="J17">
-        <v>1.000024207286458</v>
+        <v>1.007132727790734</v>
       </c>
       <c r="K17">
-        <v>1.000018248711243</v>
+        <v>0.9988591517921382</v>
       </c>
       <c r="L17">
-        <v>0.9999804484415865</v>
+        <v>0.9978599638167654</v>
       </c>
       <c r="M17">
-        <v>1.000002327864022</v>
+        <v>1.00249634580375</v>
       </c>
       <c r="N17">
-        <v>1.000002327864022</v>
+        <v>1.00249634580375</v>
       </c>
       <c r="O17">
-        <v>1.000008905613343</v>
+        <v>1.003048976996255</v>
       </c>
       <c r="P17">
-        <v>1.000007634813096</v>
+        <v>1.001283947799879</v>
       </c>
       <c r="Q17">
-        <v>1.000007634813096</v>
+        <v>1.001283947799879</v>
       </c>
       <c r="R17">
-        <v>1.000010288287632</v>
+        <v>1.000677748797944</v>
       </c>
       <c r="S17">
-        <v>1.000010288287632</v>
+        <v>1.000677748797944</v>
       </c>
       <c r="T17">
-        <v>0.9999961826382725</v>
+        <v>1.000043378657572</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999209358101122</v>
+        <v>0.9980185980607034</v>
       </c>
       <c r="D18">
-        <v>1.000173421725783</v>
+        <v>1.002252513359571</v>
       </c>
       <c r="E18">
-        <v>0.9999764840753486</v>
+        <v>0.9983264680432882</v>
       </c>
       <c r="F18">
-        <v>0.9999209358101122</v>
+        <v>0.9989417405444196</v>
       </c>
       <c r="G18">
-        <v>0.999947870957859</v>
+        <v>1.00446091542131</v>
       </c>
       <c r="H18">
-        <v>1.00008252504251</v>
+        <v>0.9991949399496665</v>
       </c>
       <c r="I18">
-        <v>0.9999602875018688</v>
+        <v>0.9983264680432882</v>
       </c>
       <c r="J18">
-        <v>1.000173421725783</v>
+        <v>1.00446091542131</v>
       </c>
       <c r="K18">
-        <v>0.9999209358101122</v>
+        <v>0.9983264680432882</v>
       </c>
       <c r="L18">
-        <v>0.9999764840753486</v>
+        <v>0.9991949399496665</v>
       </c>
       <c r="M18">
-        <v>1.000074952900566</v>
+        <v>1.001827927685488</v>
       </c>
       <c r="N18">
-        <v>1.000074952900566</v>
+        <v>1.001827927685488</v>
       </c>
       <c r="O18">
-        <v>1.00007747694788</v>
+        <v>1.001969456243516</v>
       </c>
       <c r="P18">
-        <v>1.000023613870415</v>
+        <v>1.000660774471422</v>
       </c>
       <c r="Q18">
-        <v>1.000023613870414</v>
+        <v>1.000660774471422</v>
       </c>
       <c r="R18">
-        <v>0.9999979443553388</v>
+        <v>1.000077197864388</v>
       </c>
       <c r="S18">
-        <v>0.9999979443553388</v>
+        <v>1.000077197864388</v>
       </c>
       <c r="T18">
-        <v>1.00001025418558</v>
+        <v>1.000199195896493</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9982477618583816</v>
+      </c>
+      <c r="D19">
+        <v>1.002358314238837</v>
+      </c>
+      <c r="E19">
+        <v>0.9979683394590954</v>
+      </c>
+      <c r="F19">
+        <v>0.998877234908212</v>
+      </c>
+      <c r="G19">
+        <v>1.004827676177634</v>
+      </c>
+      <c r="H19">
+        <v>0.9992512719918811</v>
+      </c>
+      <c r="I19">
+        <v>0.9979683394590954</v>
+      </c>
+      <c r="J19">
+        <v>1.004827676177634</v>
+      </c>
+      <c r="K19">
+        <v>0.9979683394590954</v>
+      </c>
+      <c r="L19">
+        <v>0.9992512719918811</v>
+      </c>
+      <c r="M19">
+        <v>1.002039474084758</v>
+      </c>
+      <c r="N19">
+        <v>1.002039474084758</v>
+      </c>
+      <c r="O19">
+        <v>1.002145754136117</v>
+      </c>
+      <c r="P19">
+        <v>1.000682429209537</v>
+      </c>
+      <c r="Q19">
+        <v>1.000682429209537</v>
+      </c>
+      <c r="R19">
+        <v>1.000003906771926</v>
+      </c>
+      <c r="S19">
+        <v>1.000003906771926</v>
+      </c>
+      <c r="T19">
+        <v>1.00025509977234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000029212484039</v>
+      </c>
+      <c r="D20">
+        <v>1.000002030932869</v>
+      </c>
+      <c r="E20">
+        <v>0.9999716016436384</v>
+      </c>
+      <c r="F20">
+        <v>0.9999976204692183</v>
+      </c>
+      <c r="G20">
+        <v>1.000019148909126</v>
+      </c>
+      <c r="H20">
+        <v>1.000008330587633</v>
+      </c>
+      <c r="I20">
+        <v>0.9999716016436384</v>
+      </c>
+      <c r="J20">
+        <v>1.000019148909126</v>
+      </c>
+      <c r="K20">
+        <v>0.9999716016436384</v>
+      </c>
+      <c r="L20">
+        <v>1.000008330587633</v>
+      </c>
+      <c r="M20">
+        <v>1.000013739748379</v>
+      </c>
+      <c r="N20">
+        <v>1.000013739748379</v>
+      </c>
+      <c r="O20">
+        <v>1.000009836809876</v>
+      </c>
+      <c r="P20">
+        <v>0.9999996937134658</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999996937134658</v>
+      </c>
+      <c r="R20">
+        <v>0.9999926706960089</v>
+      </c>
+      <c r="S20">
+        <v>0.9999926706960089</v>
+      </c>
+      <c r="T20">
+        <v>1.000004657504421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999406635852379</v>
+      </c>
+      <c r="D21">
+        <v>1.000022061111986</v>
+      </c>
+      <c r="E21">
+        <v>1.000018248711243</v>
+      </c>
+      <c r="F21">
+        <v>0.9999914666931237</v>
+      </c>
+      <c r="G21">
+        <v>1.000024207286458</v>
+      </c>
+      <c r="H21">
+        <v>0.9999804484415865</v>
+      </c>
+      <c r="I21">
+        <v>1.000018248711243</v>
+      </c>
+      <c r="J21">
+        <v>1.000024207286458</v>
+      </c>
+      <c r="K21">
+        <v>1.000018248711243</v>
+      </c>
+      <c r="L21">
+        <v>0.9999804484415865</v>
+      </c>
+      <c r="M21">
+        <v>1.000002327864022</v>
+      </c>
+      <c r="N21">
+        <v>1.000002327864022</v>
+      </c>
+      <c r="O21">
+        <v>1.000008905613343</v>
+      </c>
+      <c r="P21">
+        <v>1.000007634813096</v>
+      </c>
+      <c r="Q21">
+        <v>1.000007634813096</v>
+      </c>
+      <c r="R21">
+        <v>1.000010288287632</v>
+      </c>
+      <c r="S21">
+        <v>1.000010288287632</v>
+      </c>
+      <c r="T21">
+        <v>0.9999961826382725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999478709578588</v>
+      </c>
+      <c r="D22">
+        <v>1.00008252504251</v>
+      </c>
+      <c r="E22">
+        <v>0.9999209358101123</v>
+      </c>
+      <c r="F22">
+        <v>0.9999602875018688</v>
+      </c>
+      <c r="G22">
+        <v>1.000173421725783</v>
+      </c>
+      <c r="H22">
+        <v>0.9999764840753486</v>
+      </c>
+      <c r="I22">
+        <v>0.9999209358101123</v>
+      </c>
+      <c r="J22">
+        <v>1.000173421725783</v>
+      </c>
+      <c r="K22">
+        <v>0.9999209358101123</v>
+      </c>
+      <c r="L22">
+        <v>0.9999764840753486</v>
+      </c>
+      <c r="M22">
+        <v>1.000074952900566</v>
+      </c>
+      <c r="N22">
+        <v>1.000074952900566</v>
+      </c>
+      <c r="O22">
+        <v>1.00007747694788</v>
+      </c>
+      <c r="P22">
+        <v>1.000023613870415</v>
+      </c>
+      <c r="Q22">
+        <v>1.000023613870414</v>
+      </c>
+      <c r="R22">
+        <v>0.999997944355339</v>
+      </c>
+      <c r="S22">
+        <v>0.999997944355339</v>
+      </c>
+      <c r="T22">
+        <v>1.00001025418558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999597065958683</v>
+      </c>
+      <c r="D23">
+        <v>1.000195866868098</v>
+      </c>
+      <c r="E23">
         <v>0.9997399783408816</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.9999019136075561</v>
+      </c>
+      <c r="G23">
         <v>1.00045229891959</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>0.9999685616471072</v>
       </c>
-      <c r="F19">
+      <c r="I23">
         <v>0.9997399783408816</v>
       </c>
-      <c r="G19">
-        <v>0.9999597065958683</v>
-      </c>
-      <c r="H19">
-        <v>1.000195866868098</v>
-      </c>
-      <c r="I19">
-        <v>0.9999019136075561</v>
-      </c>
-      <c r="J19">
+      <c r="J23">
         <v>1.00045229891959</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9997399783408816</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9999685616471072</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000210430283349</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000210430283349</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000205575811599</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000053612969193</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000053612969193</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999752043121152</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999752043121152</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000036387663184</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9995851448923947</v>
+        <v>0.9981637471397665</v>
       </c>
       <c r="D3">
-        <v>1.00026043763021</v>
+        <v>1.002218613162825</v>
       </c>
       <c r="E3">
-        <v>0.9999676496748842</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="F3">
-        <v>0.9998861707445811</v>
+        <v>0.9989523703386153</v>
       </c>
       <c r="G3">
-        <v>1.000425132604155</v>
+        <v>1.004450053451009</v>
       </c>
       <c r="H3">
-        <v>0.9998526432127123</v>
+        <v>0.9992407520100851</v>
       </c>
       <c r="I3">
-        <v>0.9999676496748842</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="J3">
-        <v>1.000425132604155</v>
+        <v>1.004450053451009</v>
       </c>
       <c r="K3">
-        <v>0.9999676496748842</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="L3">
-        <v>0.9998526432127123</v>
+        <v>0.9992407520100851</v>
       </c>
       <c r="M3">
-        <v>1.000138887908434</v>
+        <v>1.001845402730547</v>
       </c>
       <c r="N3">
-        <v>1.000138887908434</v>
+        <v>1.001845402730547</v>
       </c>
       <c r="O3">
-        <v>1.000179404482359</v>
+        <v>1.001969806207973</v>
       </c>
       <c r="P3">
-        <v>1.00008180849725</v>
+        <v>1.000647471777137</v>
       </c>
       <c r="Q3">
-        <v>1.00008180849725</v>
+        <v>1.000647471777137</v>
       </c>
       <c r="R3">
-        <v>1.000053268791659</v>
+        <v>1.000048506300431</v>
       </c>
       <c r="S3">
-        <v>1.000053268791659</v>
+        <v>1.000048506300431</v>
       </c>
       <c r="T3">
-        <v>0.9999961964598229</v>
+        <v>1.000212857662103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9991959013715082</v>
+        <v>0.9980766104686953</v>
       </c>
       <c r="D4">
-        <v>1.000502673350892</v>
+        <v>1.002260924006707</v>
       </c>
       <c r="E4">
-        <v>0.9999404946508784</v>
+        <v>0.9982634775149051</v>
       </c>
       <c r="F4">
-        <v>0.9997804536747621</v>
+        <v>0.9989347844884524</v>
       </c>
       <c r="G4">
-        <v>1.000818901668991</v>
+        <v>1.004509488485833</v>
       </c>
       <c r="H4">
-        <v>0.9997145984479388</v>
+        <v>0.9992110452329483</v>
       </c>
       <c r="I4">
-        <v>0.9999404946508784</v>
+        <v>0.9982634775149051</v>
       </c>
       <c r="J4">
-        <v>1.000818901668991</v>
+        <v>1.004509488485833</v>
       </c>
       <c r="K4">
-        <v>0.9999404946508784</v>
+        <v>0.9982634775149051</v>
       </c>
       <c r="L4">
-        <v>0.9997145984479388</v>
+        <v>0.9992110452329483</v>
       </c>
       <c r="M4">
-        <v>1.000266750058465</v>
+        <v>1.001860266859391</v>
       </c>
       <c r="N4">
-        <v>1.000266750058465</v>
+        <v>1.001860266859391</v>
       </c>
       <c r="O4">
-        <v>1.000345391155941</v>
+        <v>1.00199381924183</v>
       </c>
       <c r="P4">
-        <v>1.000157998255936</v>
+        <v>1.000661337077896</v>
       </c>
       <c r="Q4">
-        <v>1.000157998255936</v>
+        <v>1.000661337077896</v>
       </c>
       <c r="R4">
-        <v>1.000103622354672</v>
+        <v>1.000061872187148</v>
       </c>
       <c r="S4">
-        <v>1.000103622354672</v>
+        <v>1.000061872187148</v>
       </c>
       <c r="T4">
-        <v>0.9999921705274953</v>
+        <v>1.000209388366257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9984835178614564</v>
+        <v>0.9983342996226424</v>
       </c>
       <c r="D5">
-        <v>1.000964069447401</v>
+        <v>1.002133484824799</v>
       </c>
       <c r="E5">
-        <v>0.9998635882044581</v>
+        <v>0.9982318659029659</v>
       </c>
       <c r="F5">
-        <v>0.9995777575009115</v>
+        <v>0.9989879720485171</v>
       </c>
       <c r="G5">
-        <v>1.001583090482495</v>
+        <v>1.004328146630729</v>
       </c>
       <c r="H5">
-        <v>0.9994601391169219</v>
+        <v>0.9992991286253357</v>
       </c>
       <c r="I5">
-        <v>0.9998635882044581</v>
+        <v>0.9982318659029659</v>
       </c>
       <c r="J5">
-        <v>1.001583090482495</v>
+        <v>1.004328146630729</v>
       </c>
       <c r="K5">
-        <v>0.9998635882044581</v>
+        <v>0.9982318659029659</v>
       </c>
       <c r="L5">
-        <v>0.9994601391169219</v>
+        <v>0.9992991286253357</v>
       </c>
       <c r="M5">
-        <v>1.000521614799708</v>
+        <v>1.001813637628032</v>
       </c>
       <c r="N5">
-        <v>1.000521614799708</v>
+        <v>1.001813637628032</v>
       </c>
       <c r="O5">
-        <v>1.000669099682273</v>
+        <v>1.001920253360288</v>
       </c>
       <c r="P5">
-        <v>1.000302272601292</v>
+        <v>1.000619713719677</v>
       </c>
       <c r="Q5">
-        <v>1.000302272601292</v>
+        <v>1.000619713719677</v>
       </c>
       <c r="R5">
-        <v>1.000192601502083</v>
+        <v>1.000022751765499</v>
       </c>
       <c r="S5">
-        <v>1.000192601502083</v>
+        <v>1.000022751765499</v>
       </c>
       <c r="T5">
-        <v>0.9999886937689406</v>
+        <v>1.000219149609165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9977873551350782</v>
+        <v>0.9984995784659095</v>
       </c>
       <c r="D6">
-        <v>1.001414337194528</v>
+        <v>1.00204832346591</v>
       </c>
       <c r="E6">
-        <v>0.9997893823956886</v>
+        <v>0.9982167482386359</v>
       </c>
       <c r="F6">
-        <v>0.9993799917873992</v>
+        <v>0.9990238318181811</v>
       </c>
       <c r="G6">
-        <v>1.002328388795087</v>
+        <v>1.004203582329546</v>
       </c>
       <c r="H6">
-        <v>0.9992115258503388</v>
+        <v>0.999355966761364</v>
       </c>
       <c r="I6">
-        <v>0.9997893823956886</v>
+        <v>0.9982167482386359</v>
       </c>
       <c r="J6">
-        <v>1.002328388795087</v>
+        <v>1.004203582329546</v>
       </c>
       <c r="K6">
-        <v>0.9997893823956886</v>
+        <v>0.9982167482386359</v>
       </c>
       <c r="L6">
-        <v>0.9992115258503388</v>
+        <v>0.999355966761364</v>
       </c>
       <c r="M6">
-        <v>1.000769957322713</v>
+        <v>1.001779774545455</v>
       </c>
       <c r="N6">
-        <v>1.000769957322713</v>
+        <v>1.001779774545455</v>
       </c>
       <c r="O6">
-        <v>1.000984750613318</v>
+        <v>1.001869290852273</v>
       </c>
       <c r="P6">
-        <v>1.000443099013705</v>
+        <v>1.000592099109848</v>
       </c>
       <c r="Q6">
-        <v>1.000443099013705</v>
+        <v>1.000592099109848</v>
       </c>
       <c r="R6">
-        <v>1.000279669859201</v>
+        <v>0.9999982613920453</v>
       </c>
       <c r="S6">
-        <v>1.000279669859201</v>
+        <v>0.9999982613920453</v>
       </c>
       <c r="T6">
-        <v>0.9999851635263534</v>
+        <v>1.000224671846591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999944605497945</v>
+        <v>1.049426120532146</v>
       </c>
       <c r="D7">
-        <v>1.000009717478147</v>
+        <v>0.9574826013876893</v>
       </c>
       <c r="E7">
-        <v>0.9999901719335804</v>
+        <v>1.021156555903009</v>
       </c>
       <c r="F7">
-        <v>0.9999952945840511</v>
+        <v>1.019422971364592</v>
       </c>
       <c r="G7">
-        <v>1.000020713029155</v>
+        <v>0.9216659954162706</v>
       </c>
       <c r="H7">
-        <v>0.999997405424268</v>
+        <v>1.018709592781292</v>
       </c>
       <c r="I7">
-        <v>0.9999901719335804</v>
+        <v>1.021156555903009</v>
       </c>
       <c r="J7">
-        <v>1.000020713029155</v>
+        <v>0.9216659954162706</v>
       </c>
       <c r="K7">
-        <v>0.9999901719335804</v>
+        <v>1.021156555903009</v>
       </c>
       <c r="L7">
-        <v>0.999997405424268</v>
+        <v>1.018709592781292</v>
       </c>
       <c r="M7">
-        <v>1.000009059226712</v>
+        <v>0.9701877940987813</v>
       </c>
       <c r="N7">
-        <v>1.000009059226712</v>
+        <v>0.9701877940987813</v>
       </c>
       <c r="O7">
-        <v>1.000009278643857</v>
+        <v>0.9659527298617506</v>
       </c>
       <c r="P7">
-        <v>1.000002763462335</v>
+        <v>0.9871773813668572</v>
       </c>
       <c r="Q7">
-        <v>1.000002763462335</v>
+        <v>0.9871773813668572</v>
       </c>
       <c r="R7">
-        <v>0.9999996155801461</v>
+        <v>0.995672175000895</v>
       </c>
       <c r="S7">
-        <v>0.9999996155801461</v>
+        <v>0.995672175000895</v>
       </c>
       <c r="T7">
-        <v>1.000001293833166</v>
+        <v>0.9979773062308332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000016712465768</v>
+        <v>1.049228680471785</v>
       </c>
       <c r="D8">
-        <v>0.9999951223916688</v>
+        <v>0.9576564672652298</v>
       </c>
       <c r="E8">
-        <v>0.9999928496042751</v>
+        <v>1.021065982894428</v>
       </c>
       <c r="F8">
-        <v>1.000001719392221</v>
+        <v>1.019343330393979</v>
       </c>
       <c r="G8">
-        <v>0.9999964021219445</v>
+        <v>0.9219886082037362</v>
       </c>
       <c r="H8">
-        <v>1.00000537225225</v>
+        <v>1.018634450520257</v>
       </c>
       <c r="I8">
-        <v>0.9999928496042751</v>
+        <v>1.021065982894428</v>
       </c>
       <c r="J8">
-        <v>0.9999964021219445</v>
+        <v>0.9219886082037362</v>
       </c>
       <c r="K8">
-        <v>0.9999928496042751</v>
+        <v>1.021065982894428</v>
       </c>
       <c r="L8">
-        <v>1.00000537225225</v>
+        <v>1.018634450520257</v>
       </c>
       <c r="M8">
-        <v>1.000000887187097</v>
+        <v>0.9703115293619968</v>
       </c>
       <c r="N8">
-        <v>1.000000887187097</v>
+        <v>0.9703115293619968</v>
       </c>
       <c r="O8">
-        <v>0.9999989655886209</v>
+        <v>0.9660931753297411</v>
       </c>
       <c r="P8">
-        <v>0.9999982079928231</v>
+        <v>0.9872296805394738</v>
       </c>
       <c r="Q8">
-        <v>0.9999982079928232</v>
+        <v>0.9872296805394738</v>
       </c>
       <c r="R8">
-        <v>0.9999968683956862</v>
+        <v>0.9956887561282124</v>
       </c>
       <c r="S8">
-        <v>0.9999968683956862</v>
+        <v>0.9956887561282124</v>
       </c>
       <c r="T8">
-        <v>1.000001363038021</v>
+        <v>0.9979862532915692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00002490069097</v>
+        <v>1.049051360784749</v>
       </c>
       <c r="D9">
-        <v>0.9999827184037154</v>
+        <v>0.9578347523842378</v>
       </c>
       <c r="E9">
-        <v>1.000004426874503</v>
+        <v>1.020951300614657</v>
       </c>
       <c r="F9">
-        <v>1.000007671651667</v>
+        <v>1.019260510851121</v>
       </c>
       <c r="G9">
-        <v>0.9999705081445442</v>
+        <v>0.9223316875669599</v>
       </c>
       <c r="H9">
-        <v>1.000009010290236</v>
+        <v>1.018564743126062</v>
       </c>
       <c r="I9">
-        <v>1.000004426874503</v>
+        <v>1.020951300614657</v>
       </c>
       <c r="J9">
-        <v>0.9999705081445442</v>
+        <v>0.9223316875669599</v>
       </c>
       <c r="K9">
-        <v>1.000004426874503</v>
+        <v>1.020951300614657</v>
       </c>
       <c r="L9">
-        <v>1.000009010290236</v>
+        <v>1.018564743126062</v>
       </c>
       <c r="M9">
-        <v>0.9999897592173902</v>
+        <v>0.9704482153465108</v>
       </c>
       <c r="N9">
-        <v>0.9999897592173902</v>
+        <v>0.9704482153465108</v>
       </c>
       <c r="O9">
-        <v>0.9999874122794986</v>
+        <v>0.9662437276924197</v>
       </c>
       <c r="P9">
-        <v>0.9999946484364278</v>
+        <v>0.9872825771025595</v>
       </c>
       <c r="Q9">
-        <v>0.9999946484364278</v>
+        <v>0.9872825771025595</v>
       </c>
       <c r="R9">
-        <v>0.9999970930459467</v>
+        <v>0.9956997579805839</v>
       </c>
       <c r="S9">
-        <v>0.9999970930459467</v>
+        <v>0.9956997579805839</v>
       </c>
       <c r="T9">
-        <v>0.9999998726759394</v>
+        <v>0.9979990592212976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000053497859648</v>
+        <v>1.048819247616056</v>
       </c>
       <c r="D10">
-        <v>0.9999743825599502</v>
+        <v>0.9579858776656689</v>
       </c>
       <c r="E10">
-        <v>0.9999921744156768</v>
+        <v>1.020925052901321</v>
       </c>
       <c r="F10">
-        <v>1.000010611475552</v>
+        <v>1.019194064172195</v>
       </c>
       <c r="G10">
-        <v>0.9999643740962935</v>
+        <v>0.9225825852357619</v>
       </c>
       <c r="H10">
-        <v>1.000018202536857</v>
+        <v>1.018481753623774</v>
       </c>
       <c r="I10">
-        <v>0.9999921744156768</v>
+        <v>1.020925052901321</v>
       </c>
       <c r="J10">
-        <v>0.9999643740962935</v>
+        <v>0.9225825852357619</v>
       </c>
       <c r="K10">
-        <v>0.9999921744156768</v>
+        <v>1.020925052901321</v>
       </c>
       <c r="L10">
-        <v>1.000018202536857</v>
+        <v>1.018481753623774</v>
       </c>
       <c r="M10">
-        <v>0.9999912883165751</v>
+        <v>0.9705321694297682</v>
       </c>
       <c r="N10">
-        <v>0.9999912883165751</v>
+        <v>0.9705321694297682</v>
       </c>
       <c r="O10">
-        <v>0.9999856530643668</v>
+        <v>0.9663500721750684</v>
       </c>
       <c r="P10">
-        <v>0.9999915836829424</v>
+        <v>0.987329797253619</v>
       </c>
       <c r="Q10">
-        <v>0.9999915836829424</v>
+        <v>0.987329797253619</v>
       </c>
       <c r="R10">
-        <v>0.999991731366126</v>
+        <v>0.9957286111655445</v>
       </c>
       <c r="S10">
-        <v>0.999991731366126</v>
+        <v>0.9957286111655445</v>
       </c>
       <c r="T10">
-        <v>1.00000220715733</v>
+        <v>0.9979980968691295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000105796886436</v>
+        <v>0.9997352097988647</v>
       </c>
       <c r="D11">
-        <v>0.9999164518904283</v>
+        <v>1.000112016841004</v>
       </c>
       <c r="E11">
-        <v>1.000034052594363</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="F11">
-        <v>1.000037766315178</v>
+        <v>0.9999550051800188</v>
       </c>
       <c r="G11">
-        <v>0.9998502997670237</v>
+        <v>1.000140716553519</v>
       </c>
       <c r="H11">
-        <v>1.000039299704931</v>
+        <v>0.9999113891759852</v>
       </c>
       <c r="I11">
-        <v>1.000034052594363</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="J11">
-        <v>0.9998502997670237</v>
+        <v>1.000140716553519</v>
       </c>
       <c r="K11">
-        <v>1.000034052594363</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="L11">
-        <v>1.000039299704931</v>
+        <v>0.9999113891759852</v>
       </c>
       <c r="M11">
-        <v>0.9999447997359774</v>
+        <v>1.000026052864752</v>
       </c>
       <c r="N11">
-        <v>0.9999447997359774</v>
+        <v>1.000026052864752</v>
       </c>
       <c r="O11">
-        <v>0.9999353504541277</v>
+        <v>1.000054707523503</v>
       </c>
       <c r="P11">
-        <v>0.9999745506887724</v>
+        <v>1.000037701338732</v>
       </c>
       <c r="Q11">
-        <v>0.9999745506887724</v>
+        <v>1.000037701338732</v>
       </c>
       <c r="R11">
-        <v>0.9999894261651701</v>
+        <v>1.000043525575722</v>
       </c>
       <c r="S11">
-        <v>0.9999894261651701</v>
+        <v>1.000043525575722</v>
       </c>
       <c r="T11">
-        <v>0.9999972778597265</v>
+        <v>0.9999858893060142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9908157064730219</v>
+        <v>1.000058361079529</v>
       </c>
       <c r="D12">
-        <v>1.005175014157324</v>
+        <v>0.9999050467710048</v>
       </c>
       <c r="E12">
-        <v>1.000173421036279</v>
+        <v>1.000092376521024</v>
       </c>
       <c r="F12">
-        <v>0.9977814163223373</v>
+        <v>1.000045763553428</v>
       </c>
       <c r="G12">
-        <v>1.007988395317166</v>
+        <v>0.9997996752332678</v>
       </c>
       <c r="H12">
-        <v>0.9967970559290056</v>
+        <v>1.00002658430803</v>
       </c>
       <c r="I12">
-        <v>1.000173421036279</v>
+        <v>1.000092376521024</v>
       </c>
       <c r="J12">
-        <v>1.007988395317166</v>
+        <v>0.9997996752332678</v>
       </c>
       <c r="K12">
-        <v>1.000173421036279</v>
+        <v>1.000092376521024</v>
       </c>
       <c r="L12">
-        <v>0.9967970559290056</v>
+        <v>1.00002658430803</v>
       </c>
       <c r="M12">
-        <v>1.002392725623086</v>
+        <v>0.9999131297706487</v>
       </c>
       <c r="N12">
-        <v>1.002392725623086</v>
+        <v>0.9999131297706487</v>
       </c>
       <c r="O12">
-        <v>1.003320155134499</v>
+        <v>0.9999104354374341</v>
       </c>
       <c r="P12">
-        <v>1.001652957427484</v>
+        <v>0.9999728786874403</v>
       </c>
       <c r="Q12">
-        <v>1.001652957427484</v>
+        <v>0.9999728786874403</v>
       </c>
       <c r="R12">
-        <v>1.001283073329682</v>
+        <v>1.000002753145836</v>
       </c>
       <c r="S12">
-        <v>1.001283073329682</v>
+        <v>1.000002753145836</v>
       </c>
       <c r="T12">
-        <v>0.999788501539189</v>
+        <v>0.9999879679110472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9995216663381363</v>
+        <v>1.000281409853128</v>
       </c>
       <c r="D13">
-        <v>1.0014123192332</v>
+        <v>0.9995975208552301</v>
       </c>
       <c r="E13">
-        <v>0.9982879551372378</v>
+        <v>1.00036202442213</v>
       </c>
       <c r="F13">
-        <v>0.9993013918100259</v>
+        <v>1.000192421017555</v>
       </c>
       <c r="G13">
-        <v>1.003169771622784</v>
+        <v>0.9991674900628769</v>
       </c>
       <c r="H13">
-        <v>0.9997184477764984</v>
+        <v>1.000122628771792</v>
       </c>
       <c r="I13">
-        <v>0.9982879551372378</v>
+        <v>1.00036202442213</v>
       </c>
       <c r="J13">
-        <v>1.003169771622784</v>
+        <v>0.9991674900628769</v>
       </c>
       <c r="K13">
-        <v>0.9982879551372378</v>
+        <v>1.00036202442213</v>
       </c>
       <c r="L13">
-        <v>0.9997184477764984</v>
+        <v>1.000122628771792</v>
       </c>
       <c r="M13">
-        <v>1.001444109699641</v>
+        <v>0.9996450594173343</v>
       </c>
       <c r="N13">
-        <v>1.001444109699641</v>
+        <v>0.9996450594173343</v>
       </c>
       <c r="O13">
-        <v>1.001433512877494</v>
+        <v>0.9996292132299662</v>
       </c>
       <c r="P13">
-        <v>1.00039205817884</v>
+        <v>0.999884047752266</v>
       </c>
       <c r="Q13">
-        <v>1.00039205817884</v>
+        <v>0.999884047752266</v>
       </c>
       <c r="R13">
-        <v>0.9998660324184393</v>
+        <v>1.000003541919732</v>
       </c>
       <c r="S13">
-        <v>0.9998660324184393</v>
+        <v>1.000003541919732</v>
       </c>
       <c r="T13">
-        <v>1.00023525865298</v>
+        <v>0.9999539158304517</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9864199826982532</v>
+        <v>0.998877679701351</v>
       </c>
       <c r="D14">
-        <v>1.013239886451313</v>
+        <v>1.000713276133576</v>
       </c>
       <c r="E14">
-        <v>0.9918406681397252</v>
+        <v>0.9998993665642836</v>
       </c>
       <c r="F14">
-        <v>0.9938685269952762</v>
+        <v>0.9996876121679055</v>
       </c>
       <c r="G14">
-        <v>1.025276946413416</v>
+        <v>1.001171103530923</v>
       </c>
       <c r="H14">
-        <v>0.9947030378372953</v>
+        <v>0.9996004762506677</v>
       </c>
       <c r="I14">
-        <v>0.9918406681397252</v>
+        <v>0.9998993665642836</v>
       </c>
       <c r="J14">
-        <v>1.025276946413416</v>
+        <v>1.001171103530923</v>
       </c>
       <c r="K14">
-        <v>0.9918406681397252</v>
+        <v>0.9998993665642836</v>
       </c>
       <c r="L14">
-        <v>0.9947030378372953</v>
+        <v>0.9996004762506677</v>
       </c>
       <c r="M14">
-        <v>1.009989992125356</v>
+        <v>1.000385789890795</v>
       </c>
       <c r="N14">
-        <v>1.009989992125356</v>
+        <v>1.000385789890795</v>
       </c>
       <c r="O14">
-        <v>1.011073290234008</v>
+        <v>1.000494951971722</v>
       </c>
       <c r="P14">
-        <v>1.003940217463479</v>
+        <v>1.000223648781958</v>
       </c>
       <c r="Q14">
-        <v>1.003940217463479</v>
+        <v>1.000223648781958</v>
       </c>
       <c r="R14">
-        <v>1.00091533013254</v>
+        <v>1.000142578227539</v>
       </c>
       <c r="S14">
-        <v>1.00091533013254</v>
+        <v>1.000142578227539</v>
       </c>
       <c r="T14">
-        <v>1.000891508089213</v>
+        <v>0.9999915857247844</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9946916969662245</v>
+        <v>0.9995851448923947</v>
       </c>
       <c r="D15">
-        <v>1.003561834144572</v>
+        <v>1.00026043763021</v>
       </c>
       <c r="E15">
-        <v>0.9992406048142194</v>
+        <v>0.9999676496748842</v>
       </c>
       <c r="F15">
-        <v>0.9984264925585583</v>
+        <v>0.9998861707445811</v>
       </c>
       <c r="G15">
-        <v>1.005992520644222</v>
+        <v>1.000425132604155</v>
       </c>
       <c r="H15">
-        <v>0.9980914665711585</v>
+        <v>0.9998526432127123</v>
       </c>
       <c r="I15">
-        <v>0.9992406048142194</v>
+        <v>0.9999676496748842</v>
       </c>
       <c r="J15">
-        <v>1.005992520644222</v>
+        <v>1.000425132604155</v>
       </c>
       <c r="K15">
-        <v>0.9992406048142194</v>
+        <v>0.9999676496748842</v>
       </c>
       <c r="L15">
-        <v>0.9980914665711585</v>
+        <v>0.9998526432127123</v>
       </c>
       <c r="M15">
-        <v>1.00204199360769</v>
+        <v>1.000138887908434</v>
       </c>
       <c r="N15">
-        <v>1.00204199360769</v>
+        <v>1.000138887908434</v>
       </c>
       <c r="O15">
-        <v>1.002548607119984</v>
+        <v>1.000179404482359</v>
       </c>
       <c r="P15">
-        <v>1.0011081973432</v>
+        <v>1.00008180849725</v>
       </c>
       <c r="Q15">
-        <v>1.0011081973432</v>
+        <v>1.00008180849725</v>
       </c>
       <c r="R15">
-        <v>1.000641299210955</v>
+        <v>1.000053268791659</v>
       </c>
       <c r="S15">
-        <v>1.000641299210955</v>
+        <v>1.000053268791659</v>
       </c>
       <c r="T15">
-        <v>1.000000769283159</v>
+        <v>0.9999961964598229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9921613886077129</v>
+        <v>0.9991959013715082</v>
       </c>
       <c r="D16">
-        <v>1.005081496893171</v>
+        <v>1.000502673350892</v>
       </c>
       <c r="E16">
-        <v>0.9991468971105875</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="F16">
-        <v>0.9977673292555678</v>
+        <v>0.9997804536747621</v>
       </c>
       <c r="G16">
-        <v>1.008419711366302</v>
+        <v>1.000818901668991</v>
       </c>
       <c r="H16">
-        <v>0.9971996103968422</v>
+        <v>0.9997145984479388</v>
       </c>
       <c r="I16">
-        <v>0.9991468971105875</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="J16">
-        <v>1.008419711366302</v>
+        <v>1.000818901668991</v>
       </c>
       <c r="K16">
-        <v>0.9991468971105875</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="L16">
-        <v>0.9971996103968422</v>
+        <v>0.9997145984479388</v>
       </c>
       <c r="M16">
-        <v>1.002809660881572</v>
+        <v>1.000266750058465</v>
       </c>
       <c r="N16">
-        <v>1.002809660881572</v>
+        <v>1.000266750058465</v>
       </c>
       <c r="O16">
-        <v>1.003566939552105</v>
+        <v>1.000345391155941</v>
       </c>
       <c r="P16">
-        <v>1.001588739624577</v>
+        <v>1.000157998255936</v>
       </c>
       <c r="Q16">
-        <v>1.001588739624577</v>
+        <v>1.000157998255936</v>
       </c>
       <c r="R16">
-        <v>1.00097827899608</v>
+        <v>1.000103622354672</v>
       </c>
       <c r="S16">
-        <v>1.00097827899608</v>
+        <v>1.000103622354672</v>
       </c>
       <c r="T16">
-        <v>0.9999627389383638</v>
+        <v>0.9999921705274953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9941029196603772</v>
+        <v>0.9984835178614564</v>
       </c>
       <c r="D17">
-        <v>1.004154239381264</v>
+        <v>1.000964069447401</v>
       </c>
       <c r="E17">
-        <v>0.9988591517921382</v>
+        <v>0.9998635882044581</v>
       </c>
       <c r="F17">
-        <v>0.9981512695041522</v>
+        <v>0.9995777575009115</v>
       </c>
       <c r="G17">
-        <v>1.007132727790734</v>
+        <v>1.001583090482495</v>
       </c>
       <c r="H17">
-        <v>0.9978599638167654</v>
+        <v>0.9994601391169219</v>
       </c>
       <c r="I17">
-        <v>0.9988591517921382</v>
+        <v>0.9998635882044581</v>
       </c>
       <c r="J17">
-        <v>1.007132727790734</v>
+        <v>1.001583090482495</v>
       </c>
       <c r="K17">
-        <v>0.9988591517921382</v>
+        <v>0.9998635882044581</v>
       </c>
       <c r="L17">
-        <v>0.9978599638167654</v>
+        <v>0.9994601391169219</v>
       </c>
       <c r="M17">
-        <v>1.00249634580375</v>
+        <v>1.000521614799708</v>
       </c>
       <c r="N17">
-        <v>1.00249634580375</v>
+        <v>1.000521614799708</v>
       </c>
       <c r="O17">
-        <v>1.003048976996255</v>
+        <v>1.000669099682273</v>
       </c>
       <c r="P17">
-        <v>1.001283947799879</v>
+        <v>1.000302272601292</v>
       </c>
       <c r="Q17">
-        <v>1.001283947799879</v>
+        <v>1.000302272601292</v>
       </c>
       <c r="R17">
-        <v>1.000677748797944</v>
+        <v>1.000192601502083</v>
       </c>
       <c r="S17">
-        <v>1.000677748797944</v>
+        <v>1.000192601502083</v>
       </c>
       <c r="T17">
-        <v>1.000043378657572</v>
+        <v>0.9999886937689406</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9980185980607034</v>
+        <v>0.9977873551350782</v>
       </c>
       <c r="D18">
-        <v>1.002252513359571</v>
+        <v>1.001414337194528</v>
       </c>
       <c r="E18">
-        <v>0.9983264680432882</v>
+        <v>0.9997893823956886</v>
       </c>
       <c r="F18">
-        <v>0.9989417405444196</v>
+        <v>0.9993799917873992</v>
       </c>
       <c r="G18">
-        <v>1.00446091542131</v>
+        <v>1.002328388795087</v>
       </c>
       <c r="H18">
-        <v>0.9991949399496665</v>
+        <v>0.9992115258503388</v>
       </c>
       <c r="I18">
-        <v>0.9983264680432882</v>
+        <v>0.9997893823956886</v>
       </c>
       <c r="J18">
-        <v>1.00446091542131</v>
+        <v>1.002328388795087</v>
       </c>
       <c r="K18">
-        <v>0.9983264680432882</v>
+        <v>0.9997893823956886</v>
       </c>
       <c r="L18">
-        <v>0.9991949399496665</v>
+        <v>0.9992115258503388</v>
       </c>
       <c r="M18">
-        <v>1.001827927685488</v>
+        <v>1.000769957322713</v>
       </c>
       <c r="N18">
-        <v>1.001827927685488</v>
+        <v>1.000769957322713</v>
       </c>
       <c r="O18">
-        <v>1.001969456243516</v>
+        <v>1.000984750613318</v>
       </c>
       <c r="P18">
-        <v>1.000660774471422</v>
+        <v>1.000443099013705</v>
       </c>
       <c r="Q18">
-        <v>1.000660774471422</v>
+        <v>1.000443099013705</v>
       </c>
       <c r="R18">
-        <v>1.000077197864388</v>
+        <v>1.000279669859201</v>
       </c>
       <c r="S18">
-        <v>1.000077197864388</v>
+        <v>1.000279669859201</v>
       </c>
       <c r="T18">
-        <v>1.000199195896493</v>
+        <v>0.9999851635263534</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9982477618583816</v>
+        <v>0.9999944605497945</v>
       </c>
       <c r="D19">
-        <v>1.002358314238837</v>
+        <v>1.000009717478147</v>
       </c>
       <c r="E19">
-        <v>0.9979683394590954</v>
+        <v>0.9999901719335804</v>
       </c>
       <c r="F19">
-        <v>0.998877234908212</v>
+        <v>0.9999952945840511</v>
       </c>
       <c r="G19">
-        <v>1.004827676177634</v>
+        <v>1.000020713029155</v>
       </c>
       <c r="H19">
-        <v>0.9992512719918811</v>
+        <v>0.999997405424268</v>
       </c>
       <c r="I19">
-        <v>0.9979683394590954</v>
+        <v>0.9999901719335804</v>
       </c>
       <c r="J19">
-        <v>1.004827676177634</v>
+        <v>1.000020713029155</v>
       </c>
       <c r="K19">
-        <v>0.9979683394590954</v>
+        <v>0.9999901719335804</v>
       </c>
       <c r="L19">
-        <v>0.9992512719918811</v>
+        <v>0.999997405424268</v>
       </c>
       <c r="M19">
-        <v>1.002039474084758</v>
+        <v>1.000009059226712</v>
       </c>
       <c r="N19">
-        <v>1.002039474084758</v>
+        <v>1.000009059226712</v>
       </c>
       <c r="O19">
-        <v>1.002145754136117</v>
+        <v>1.000009278643857</v>
       </c>
       <c r="P19">
-        <v>1.000682429209537</v>
+        <v>1.000002763462335</v>
       </c>
       <c r="Q19">
-        <v>1.000682429209537</v>
+        <v>1.000002763462335</v>
       </c>
       <c r="R19">
-        <v>1.000003906771926</v>
+        <v>0.9999996155801461</v>
       </c>
       <c r="S19">
-        <v>1.000003906771926</v>
+        <v>0.9999996155801461</v>
       </c>
       <c r="T19">
-        <v>1.00025509977234</v>
+        <v>1.000001293833166</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000029212484039</v>
+        <v>1.000016712465768</v>
       </c>
       <c r="D20">
-        <v>1.000002030932869</v>
+        <v>0.9999951223916688</v>
       </c>
       <c r="E20">
-        <v>0.9999716016436384</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="F20">
-        <v>0.9999976204692183</v>
+        <v>1.000001719392221</v>
       </c>
       <c r="G20">
-        <v>1.000019148909126</v>
+        <v>0.9999964021219445</v>
       </c>
       <c r="H20">
-        <v>1.000008330587633</v>
+        <v>1.00000537225225</v>
       </c>
       <c r="I20">
-        <v>0.9999716016436384</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="J20">
-        <v>1.000019148909126</v>
+        <v>0.9999964021219445</v>
       </c>
       <c r="K20">
-        <v>0.9999716016436384</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="L20">
-        <v>1.000008330587633</v>
+        <v>1.00000537225225</v>
       </c>
       <c r="M20">
-        <v>1.000013739748379</v>
+        <v>1.000000887187097</v>
       </c>
       <c r="N20">
-        <v>1.000013739748379</v>
+        <v>1.000000887187097</v>
       </c>
       <c r="O20">
-        <v>1.000009836809876</v>
+        <v>0.9999989655886209</v>
       </c>
       <c r="P20">
-        <v>0.9999996937134658</v>
+        <v>0.9999982079928231</v>
       </c>
       <c r="Q20">
-        <v>0.9999996937134658</v>
+        <v>0.9999982079928232</v>
       </c>
       <c r="R20">
-        <v>0.9999926706960089</v>
+        <v>0.9999968683956862</v>
       </c>
       <c r="S20">
-        <v>0.9999926706960089</v>
+        <v>0.9999968683956862</v>
       </c>
       <c r="T20">
-        <v>1.000004657504421</v>
+        <v>1.000001363038021</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999406635852379</v>
+        <v>1.00002490069097</v>
       </c>
       <c r="D21">
-        <v>1.000022061111986</v>
+        <v>0.9999827184037154</v>
       </c>
       <c r="E21">
-        <v>1.000018248711243</v>
+        <v>1.000004426874503</v>
       </c>
       <c r="F21">
-        <v>0.9999914666931237</v>
+        <v>1.000007671651667</v>
       </c>
       <c r="G21">
-        <v>1.000024207286458</v>
+        <v>0.9999705081445442</v>
       </c>
       <c r="H21">
-        <v>0.9999804484415865</v>
+        <v>1.000009010290236</v>
       </c>
       <c r="I21">
-        <v>1.000018248711243</v>
+        <v>1.000004426874503</v>
       </c>
       <c r="J21">
-        <v>1.000024207286458</v>
+        <v>0.9999705081445442</v>
       </c>
       <c r="K21">
-        <v>1.000018248711243</v>
+        <v>1.000004426874503</v>
       </c>
       <c r="L21">
-        <v>0.9999804484415865</v>
+        <v>1.000009010290236</v>
       </c>
       <c r="M21">
-        <v>1.000002327864022</v>
+        <v>0.9999897592173902</v>
       </c>
       <c r="N21">
-        <v>1.000002327864022</v>
+        <v>0.9999897592173902</v>
       </c>
       <c r="O21">
-        <v>1.000008905613343</v>
+        <v>0.9999874122794986</v>
       </c>
       <c r="P21">
-        <v>1.000007634813096</v>
+        <v>0.9999946484364278</v>
       </c>
       <c r="Q21">
-        <v>1.000007634813096</v>
+        <v>0.9999946484364278</v>
       </c>
       <c r="R21">
-        <v>1.000010288287632</v>
+        <v>0.9999970930459467</v>
       </c>
       <c r="S21">
-        <v>1.000010288287632</v>
+        <v>0.9999970930459467</v>
       </c>
       <c r="T21">
-        <v>0.9999961826382725</v>
+        <v>0.9999998726759394</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999478709578588</v>
+        <v>1.000053497859648</v>
       </c>
       <c r="D22">
-        <v>1.00008252504251</v>
+        <v>0.9999743825599502</v>
       </c>
       <c r="E22">
-        <v>0.9999209358101123</v>
+        <v>0.9999921744156768</v>
       </c>
       <c r="F22">
-        <v>0.9999602875018688</v>
+        <v>1.000010611475552</v>
       </c>
       <c r="G22">
-        <v>1.000173421725783</v>
+        <v>0.9999643740962935</v>
       </c>
       <c r="H22">
-        <v>0.9999764840753486</v>
+        <v>1.000018202536857</v>
       </c>
       <c r="I22">
-        <v>0.9999209358101123</v>
+        <v>0.9999921744156768</v>
       </c>
       <c r="J22">
-        <v>1.000173421725783</v>
+        <v>0.9999643740962935</v>
       </c>
       <c r="K22">
-        <v>0.9999209358101123</v>
+        <v>0.9999921744156768</v>
       </c>
       <c r="L22">
-        <v>0.9999764840753486</v>
+        <v>1.000018202536857</v>
       </c>
       <c r="M22">
-        <v>1.000074952900566</v>
+        <v>0.9999912883165751</v>
       </c>
       <c r="N22">
-        <v>1.000074952900566</v>
+        <v>0.9999912883165751</v>
       </c>
       <c r="O22">
-        <v>1.00007747694788</v>
+        <v>0.9999856530643668</v>
       </c>
       <c r="P22">
-        <v>1.000023613870415</v>
+        <v>0.9999915836829424</v>
       </c>
       <c r="Q22">
-        <v>1.000023613870414</v>
+        <v>0.9999915836829424</v>
       </c>
       <c r="R22">
-        <v>0.999997944355339</v>
+        <v>0.999991731366126</v>
       </c>
       <c r="S22">
-        <v>0.999997944355339</v>
+        <v>0.999991731366126</v>
       </c>
       <c r="T22">
-        <v>1.00001025418558</v>
+        <v>1.00000220715733</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000105796886436</v>
+      </c>
+      <c r="D23">
+        <v>0.9999164518904283</v>
+      </c>
+      <c r="E23">
+        <v>1.000034052594363</v>
+      </c>
+      <c r="F23">
+        <v>1.000037766315178</v>
+      </c>
+      <c r="G23">
+        <v>0.9998502997670237</v>
+      </c>
+      <c r="H23">
+        <v>1.000039299704931</v>
+      </c>
+      <c r="I23">
+        <v>1.000034052594363</v>
+      </c>
+      <c r="J23">
+        <v>0.9998502997670237</v>
+      </c>
+      <c r="K23">
+        <v>1.000034052594363</v>
+      </c>
+      <c r="L23">
+        <v>1.000039299704931</v>
+      </c>
+      <c r="M23">
+        <v>0.9999447997359774</v>
+      </c>
+      <c r="N23">
+        <v>0.9999447997359774</v>
+      </c>
+      <c r="O23">
+        <v>0.9999353504541277</v>
+      </c>
+      <c r="P23">
+        <v>0.9999745506887724</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999745506887724</v>
+      </c>
+      <c r="R23">
+        <v>0.9999894261651701</v>
+      </c>
+      <c r="S23">
+        <v>0.9999894261651701</v>
+      </c>
+      <c r="T23">
+        <v>0.9999972778597265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9908157064730219</v>
+      </c>
+      <c r="D24">
+        <v>1.005175014157324</v>
+      </c>
+      <c r="E24">
+        <v>1.000173421036279</v>
+      </c>
+      <c r="F24">
+        <v>0.9977814163223373</v>
+      </c>
+      <c r="G24">
+        <v>1.007988395317166</v>
+      </c>
+      <c r="H24">
+        <v>0.9967970559290056</v>
+      </c>
+      <c r="I24">
+        <v>1.000173421036279</v>
+      </c>
+      <c r="J24">
+        <v>1.007988395317166</v>
+      </c>
+      <c r="K24">
+        <v>1.000173421036279</v>
+      </c>
+      <c r="L24">
+        <v>0.9967970559290056</v>
+      </c>
+      <c r="M24">
+        <v>1.002392725623086</v>
+      </c>
+      <c r="N24">
+        <v>1.002392725623086</v>
+      </c>
+      <c r="O24">
+        <v>1.003320155134499</v>
+      </c>
+      <c r="P24">
+        <v>1.001652957427484</v>
+      </c>
+      <c r="Q24">
+        <v>1.001652957427484</v>
+      </c>
+      <c r="R24">
+        <v>1.001283073329682</v>
+      </c>
+      <c r="S24">
+        <v>1.001283073329682</v>
+      </c>
+      <c r="T24">
+        <v>0.999788501539189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9995216663381363</v>
+      </c>
+      <c r="D25">
+        <v>1.0014123192332</v>
+      </c>
+      <c r="E25">
+        <v>0.9982879551372378</v>
+      </c>
+      <c r="F25">
+        <v>0.9993013918100259</v>
+      </c>
+      <c r="G25">
+        <v>1.003169771622784</v>
+      </c>
+      <c r="H25">
+        <v>0.9997184477764984</v>
+      </c>
+      <c r="I25">
+        <v>0.9982879551372378</v>
+      </c>
+      <c r="J25">
+        <v>1.003169771622784</v>
+      </c>
+      <c r="K25">
+        <v>0.9982879551372378</v>
+      </c>
+      <c r="L25">
+        <v>0.9997184477764984</v>
+      </c>
+      <c r="M25">
+        <v>1.001444109699641</v>
+      </c>
+      <c r="N25">
+        <v>1.001444109699641</v>
+      </c>
+      <c r="O25">
+        <v>1.001433512877494</v>
+      </c>
+      <c r="P25">
+        <v>1.00039205817884</v>
+      </c>
+      <c r="Q25">
+        <v>1.00039205817884</v>
+      </c>
+      <c r="R25">
+        <v>0.9998660324184393</v>
+      </c>
+      <c r="S25">
+        <v>0.9998660324184393</v>
+      </c>
+      <c r="T25">
+        <v>1.00023525865298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9864199826982532</v>
+      </c>
+      <c r="D26">
+        <v>1.013239886451313</v>
+      </c>
+      <c r="E26">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="F26">
+        <v>0.9938685269952762</v>
+      </c>
+      <c r="G26">
+        <v>1.025276946413416</v>
+      </c>
+      <c r="H26">
+        <v>0.9947030378372953</v>
+      </c>
+      <c r="I26">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="J26">
+        <v>1.025276946413416</v>
+      </c>
+      <c r="K26">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="L26">
+        <v>0.9947030378372953</v>
+      </c>
+      <c r="M26">
+        <v>1.009989992125356</v>
+      </c>
+      <c r="N26">
+        <v>1.009989992125356</v>
+      </c>
+      <c r="O26">
+        <v>1.011073290234008</v>
+      </c>
+      <c r="P26">
+        <v>1.003940217463479</v>
+      </c>
+      <c r="Q26">
+        <v>1.003940217463479</v>
+      </c>
+      <c r="R26">
+        <v>1.00091533013254</v>
+      </c>
+      <c r="S26">
+        <v>1.00091533013254</v>
+      </c>
+      <c r="T26">
+        <v>1.000891508089213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9946916969662245</v>
+      </c>
+      <c r="D27">
+        <v>1.003561834144572</v>
+      </c>
+      <c r="E27">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="F27">
+        <v>0.9984264925585583</v>
+      </c>
+      <c r="G27">
+        <v>1.005992520644222</v>
+      </c>
+      <c r="H27">
+        <v>0.9980914665711585</v>
+      </c>
+      <c r="I27">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="J27">
+        <v>1.005992520644222</v>
+      </c>
+      <c r="K27">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="L27">
+        <v>0.9980914665711585</v>
+      </c>
+      <c r="M27">
+        <v>1.00204199360769</v>
+      </c>
+      <c r="N27">
+        <v>1.00204199360769</v>
+      </c>
+      <c r="O27">
+        <v>1.002548607119984</v>
+      </c>
+      <c r="P27">
+        <v>1.0011081973432</v>
+      </c>
+      <c r="Q27">
+        <v>1.0011081973432</v>
+      </c>
+      <c r="R27">
+        <v>1.000641299210955</v>
+      </c>
+      <c r="S27">
+        <v>1.000641299210955</v>
+      </c>
+      <c r="T27">
+        <v>1.000000769283159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9921613886077129</v>
+      </c>
+      <c r="D28">
+        <v>1.005081496893171</v>
+      </c>
+      <c r="E28">
+        <v>0.9991468971105875</v>
+      </c>
+      <c r="F28">
+        <v>0.9977673292555678</v>
+      </c>
+      <c r="G28">
+        <v>1.008419711366302</v>
+      </c>
+      <c r="H28">
+        <v>0.9971996103968422</v>
+      </c>
+      <c r="I28">
+        <v>0.9991468971105875</v>
+      </c>
+      <c r="J28">
+        <v>1.008419711366302</v>
+      </c>
+      <c r="K28">
+        <v>0.9991468971105875</v>
+      </c>
+      <c r="L28">
+        <v>0.9971996103968422</v>
+      </c>
+      <c r="M28">
+        <v>1.002809660881572</v>
+      </c>
+      <c r="N28">
+        <v>1.002809660881572</v>
+      </c>
+      <c r="O28">
+        <v>1.003566939552105</v>
+      </c>
+      <c r="P28">
+        <v>1.001588739624577</v>
+      </c>
+      <c r="Q28">
+        <v>1.001588739624577</v>
+      </c>
+      <c r="R28">
+        <v>1.00097827899608</v>
+      </c>
+      <c r="S28">
+        <v>1.00097827899608</v>
+      </c>
+      <c r="T28">
+        <v>0.9999627389383638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9941029196603772</v>
+      </c>
+      <c r="D29">
+        <v>1.004154239381264</v>
+      </c>
+      <c r="E29">
+        <v>0.9988591517921382</v>
+      </c>
+      <c r="F29">
+        <v>0.9981512695041522</v>
+      </c>
+      <c r="G29">
+        <v>1.007132727790734</v>
+      </c>
+      <c r="H29">
+        <v>0.9978599638167654</v>
+      </c>
+      <c r="I29">
+        <v>0.9988591517921382</v>
+      </c>
+      <c r="J29">
+        <v>1.007132727790734</v>
+      </c>
+      <c r="K29">
+        <v>0.9988591517921382</v>
+      </c>
+      <c r="L29">
+        <v>0.9978599638167654</v>
+      </c>
+      <c r="M29">
+        <v>1.00249634580375</v>
+      </c>
+      <c r="N29">
+        <v>1.00249634580375</v>
+      </c>
+      <c r="O29">
+        <v>1.003048976996255</v>
+      </c>
+      <c r="P29">
+        <v>1.001283947799879</v>
+      </c>
+      <c r="Q29">
+        <v>1.001283947799879</v>
+      </c>
+      <c r="R29">
+        <v>1.000677748797944</v>
+      </c>
+      <c r="S29">
+        <v>1.000677748797944</v>
+      </c>
+      <c r="T29">
+        <v>1.000043378657572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9980185980607034</v>
+      </c>
+      <c r="D30">
+        <v>1.002252513359571</v>
+      </c>
+      <c r="E30">
+        <v>0.9983264680432882</v>
+      </c>
+      <c r="F30">
+        <v>0.9989417405444196</v>
+      </c>
+      <c r="G30">
+        <v>1.00446091542131</v>
+      </c>
+      <c r="H30">
+        <v>0.9991949399496665</v>
+      </c>
+      <c r="I30">
+        <v>0.9983264680432882</v>
+      </c>
+      <c r="J30">
+        <v>1.00446091542131</v>
+      </c>
+      <c r="K30">
+        <v>0.9983264680432882</v>
+      </c>
+      <c r="L30">
+        <v>0.9991949399496665</v>
+      </c>
+      <c r="M30">
+        <v>1.001827927685488</v>
+      </c>
+      <c r="N30">
+        <v>1.001827927685488</v>
+      </c>
+      <c r="O30">
+        <v>1.001969456243516</v>
+      </c>
+      <c r="P30">
+        <v>1.000660774471422</v>
+      </c>
+      <c r="Q30">
+        <v>1.000660774471422</v>
+      </c>
+      <c r="R30">
+        <v>1.000077197864388</v>
+      </c>
+      <c r="S30">
+        <v>1.000077197864388</v>
+      </c>
+      <c r="T30">
+        <v>1.000199195896493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9982477618583816</v>
+      </c>
+      <c r="D31">
+        <v>1.002358314238837</v>
+      </c>
+      <c r="E31">
+        <v>0.9979683394590954</v>
+      </c>
+      <c r="F31">
+        <v>0.998877234908212</v>
+      </c>
+      <c r="G31">
+        <v>1.004827676177634</v>
+      </c>
+      <c r="H31">
+        <v>0.9992512719918811</v>
+      </c>
+      <c r="I31">
+        <v>0.9979683394590954</v>
+      </c>
+      <c r="J31">
+        <v>1.004827676177634</v>
+      </c>
+      <c r="K31">
+        <v>0.9979683394590954</v>
+      </c>
+      <c r="L31">
+        <v>0.9992512719918811</v>
+      </c>
+      <c r="M31">
+        <v>1.002039474084758</v>
+      </c>
+      <c r="N31">
+        <v>1.002039474084758</v>
+      </c>
+      <c r="O31">
+        <v>1.002145754136117</v>
+      </c>
+      <c r="P31">
+        <v>1.000682429209537</v>
+      </c>
+      <c r="Q31">
+        <v>1.000682429209537</v>
+      </c>
+      <c r="R31">
+        <v>1.000003906771926</v>
+      </c>
+      <c r="S31">
+        <v>1.000003906771926</v>
+      </c>
+      <c r="T31">
+        <v>1.00025509977234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9911037095890416</v>
+      </c>
+      <c r="D32">
+        <v>1.00513403479452</v>
+      </c>
+      <c r="E32">
+        <v>0.9999852756164382</v>
+      </c>
+      <c r="F32">
+        <v>0.9977890890410962</v>
+      </c>
+      <c r="G32">
+        <v>1.008030214109589</v>
+      </c>
+      <c r="H32">
+        <v>0.9968853142465758</v>
+      </c>
+      <c r="I32">
+        <v>0.9999852756164382</v>
+      </c>
+      <c r="J32">
+        <v>1.008030214109589</v>
+      </c>
+      <c r="K32">
+        <v>0.9999852756164382</v>
+      </c>
+      <c r="L32">
+        <v>0.9968853142465758</v>
+      </c>
+      <c r="M32">
+        <v>1.002457764178082</v>
+      </c>
+      <c r="N32">
+        <v>1.002457764178082</v>
+      </c>
+      <c r="O32">
+        <v>1.003349854383562</v>
+      </c>
+      <c r="P32">
+        <v>1.001633601324201</v>
+      </c>
+      <c r="Q32">
+        <v>1.001633601324201</v>
+      </c>
+      <c r="R32">
+        <v>1.00122151989726</v>
+      </c>
+      <c r="S32">
+        <v>1.00122151989726</v>
+      </c>
+      <c r="T32">
+        <v>0.9998212728995434</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.032167996315789</v>
+      </c>
+      <c r="D33">
+        <v>0.9775290715789474</v>
+      </c>
+      <c r="E33">
+        <v>1.005936999473684</v>
+      </c>
+      <c r="F33">
+        <v>1.009987661578947</v>
+      </c>
+      <c r="G33">
+        <v>0.9615496178947368</v>
+      </c>
+      <c r="H33">
+        <v>1.011654596315789</v>
+      </c>
+      <c r="I33">
+        <v>1.005936999473684</v>
+      </c>
+      <c r="J33">
+        <v>0.9615496178947368</v>
+      </c>
+      <c r="K33">
+        <v>1.005936999473684</v>
+      </c>
+      <c r="L33">
+        <v>1.011654596315789</v>
+      </c>
+      <c r="M33">
+        <v>0.9866021071052631</v>
+      </c>
+      <c r="N33">
+        <v>0.9866021071052631</v>
+      </c>
+      <c r="O33">
+        <v>0.9835777619298245</v>
+      </c>
+      <c r="P33">
+        <v>0.99304707122807</v>
+      </c>
+      <c r="Q33">
+        <v>0.99304707122807</v>
+      </c>
+      <c r="R33">
+        <v>0.9962695532894736</v>
+      </c>
+      <c r="S33">
+        <v>0.9962695532894736</v>
+      </c>
+      <c r="T33">
+        <v>0.999804323859649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.044871165263158</v>
+      </c>
+      <c r="D34">
+        <v>0.9615831984210528</v>
+      </c>
+      <c r="E34">
+        <v>1.018932242631579</v>
+      </c>
+      <c r="F34">
+        <v>1.017539986315789</v>
+      </c>
+      <c r="G34">
+        <v>0.929324355263158</v>
+      </c>
+      <c r="H34">
+        <v>1.01696707</v>
+      </c>
+      <c r="I34">
+        <v>1.018932242631579</v>
+      </c>
+      <c r="J34">
+        <v>0.929324355263158</v>
+      </c>
+      <c r="K34">
+        <v>1.018932242631579</v>
+      </c>
+      <c r="L34">
+        <v>1.01696707</v>
+      </c>
+      <c r="M34">
+        <v>0.973145712631579</v>
+      </c>
+      <c r="N34">
+        <v>0.973145712631579</v>
+      </c>
+      <c r="O34">
+        <v>0.9692915412280702</v>
+      </c>
+      <c r="P34">
+        <v>0.9884078892982456</v>
+      </c>
+      <c r="Q34">
+        <v>0.9884078892982456</v>
+      </c>
+      <c r="R34">
+        <v>0.9960389776315789</v>
+      </c>
+      <c r="S34">
+        <v>0.9960389776315789</v>
+      </c>
+      <c r="T34">
+        <v>0.9982030029824561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9930184880653043</v>
+      </c>
+      <c r="D35">
+        <v>1.009374914809477</v>
+      </c>
+      <c r="E35">
+        <v>0.9919373968358289</v>
+      </c>
+      <c r="F35">
+        <v>0.9955374588463285</v>
+      </c>
+      <c r="G35">
+        <v>1.019183524292235</v>
+      </c>
+      <c r="H35">
+        <v>0.9970189657391714</v>
+      </c>
+      <c r="I35">
+        <v>0.9919373968358289</v>
+      </c>
+      <c r="J35">
+        <v>1.019183524292235</v>
+      </c>
+      <c r="K35">
+        <v>0.9919373968358289</v>
+      </c>
+      <c r="L35">
+        <v>0.9970189657391714</v>
+      </c>
+      <c r="M35">
+        <v>1.008101245015703</v>
+      </c>
+      <c r="N35">
+        <v>1.008101245015703</v>
+      </c>
+      <c r="O35">
+        <v>1.008525801613628</v>
+      </c>
+      <c r="P35">
+        <v>1.002713295622412</v>
+      </c>
+      <c r="Q35">
+        <v>1.002713295622412</v>
+      </c>
+      <c r="R35">
+        <v>1.000019320925766</v>
+      </c>
+      <c r="S35">
+        <v>1.000019320925766</v>
+      </c>
+      <c r="T35">
+        <v>1.001011791431391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000029212484039</v>
+      </c>
+      <c r="D36">
+        <v>1.000002030932869</v>
+      </c>
+      <c r="E36">
+        <v>0.9999716016436384</v>
+      </c>
+      <c r="F36">
+        <v>0.9999976204692183</v>
+      </c>
+      <c r="G36">
+        <v>1.000019148909126</v>
+      </c>
+      <c r="H36">
+        <v>1.000008330587633</v>
+      </c>
+      <c r="I36">
+        <v>0.9999716016436384</v>
+      </c>
+      <c r="J36">
+        <v>1.000019148909126</v>
+      </c>
+      <c r="K36">
+        <v>0.9999716016436384</v>
+      </c>
+      <c r="L36">
+        <v>1.000008330587633</v>
+      </c>
+      <c r="M36">
+        <v>1.000013739748379</v>
+      </c>
+      <c r="N36">
+        <v>1.000013739748379</v>
+      </c>
+      <c r="O36">
+        <v>1.000009836809876</v>
+      </c>
+      <c r="P36">
+        <v>0.9999996937134658</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999996937134658</v>
+      </c>
+      <c r="R36">
+        <v>0.9999926706960089</v>
+      </c>
+      <c r="S36">
+        <v>0.9999926706960089</v>
+      </c>
+      <c r="T36">
+        <v>1.000004657504421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999406635852379</v>
+      </c>
+      <c r="D37">
+        <v>1.000022061111986</v>
+      </c>
+      <c r="E37">
+        <v>1.000018248711243</v>
+      </c>
+      <c r="F37">
+        <v>0.9999914666931237</v>
+      </c>
+      <c r="G37">
+        <v>1.000024207286458</v>
+      </c>
+      <c r="H37">
+        <v>0.9999804484415865</v>
+      </c>
+      <c r="I37">
+        <v>1.000018248711243</v>
+      </c>
+      <c r="J37">
+        <v>1.000024207286458</v>
+      </c>
+      <c r="K37">
+        <v>1.000018248711243</v>
+      </c>
+      <c r="L37">
+        <v>0.9999804484415865</v>
+      </c>
+      <c r="M37">
+        <v>1.000002327864022</v>
+      </c>
+      <c r="N37">
+        <v>1.000002327864022</v>
+      </c>
+      <c r="O37">
+        <v>1.000008905613343</v>
+      </c>
+      <c r="P37">
+        <v>1.000007634813096</v>
+      </c>
+      <c r="Q37">
+        <v>1.000007634813096</v>
+      </c>
+      <c r="R37">
+        <v>1.000010288287632</v>
+      </c>
+      <c r="S37">
+        <v>1.000010288287632</v>
+      </c>
+      <c r="T37">
+        <v>0.9999961826382725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999478709578588</v>
+      </c>
+      <c r="D38">
+        <v>1.00008252504251</v>
+      </c>
+      <c r="E38">
+        <v>0.9999209358101123</v>
+      </c>
+      <c r="F38">
+        <v>0.9999602875018688</v>
+      </c>
+      <c r="G38">
+        <v>1.000173421725783</v>
+      </c>
+      <c r="H38">
+        <v>0.9999764840753486</v>
+      </c>
+      <c r="I38">
+        <v>0.9999209358101123</v>
+      </c>
+      <c r="J38">
+        <v>1.000173421725783</v>
+      </c>
+      <c r="K38">
+        <v>0.9999209358101123</v>
+      </c>
+      <c r="L38">
+        <v>0.9999764840753486</v>
+      </c>
+      <c r="M38">
+        <v>1.000074952900566</v>
+      </c>
+      <c r="N38">
+        <v>1.000074952900566</v>
+      </c>
+      <c r="O38">
+        <v>1.00007747694788</v>
+      </c>
+      <c r="P38">
+        <v>1.000023613870415</v>
+      </c>
+      <c r="Q38">
+        <v>1.000023613870414</v>
+      </c>
+      <c r="R38">
+        <v>0.999997944355339</v>
+      </c>
+      <c r="S38">
+        <v>0.999997944355339</v>
+      </c>
+      <c r="T38">
+        <v>1.00001025418558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999597065958683</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000195866868098</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9997399783408816</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999019136075561</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.00045229891959</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999685616471072</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9997399783408816</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00045229891959</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9997399783408816</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999685616471072</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000210430283349</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000210430283349</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000205575811599</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000053612969193</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000053612969193</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999752043121152</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999752043121152</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000036387663184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.017999811066293</v>
+      </c>
+      <c r="D40">
+        <v>0.9856188299670804</v>
+      </c>
+      <c r="E40">
+        <v>1.006044099867074</v>
+      </c>
+      <c r="F40">
+        <v>1.006510807846424</v>
+      </c>
+      <c r="G40">
+        <v>0.9741296173160517</v>
+      </c>
+      <c r="H40">
+        <v>1.006702870559499</v>
+      </c>
+      <c r="I40">
+        <v>1.006044099867074</v>
+      </c>
+      <c r="J40">
+        <v>0.9741296173160517</v>
+      </c>
+      <c r="K40">
+        <v>1.006044099867074</v>
+      </c>
+      <c r="L40">
+        <v>1.006702870559499</v>
+      </c>
+      <c r="M40">
+        <v>0.9904162439377755</v>
+      </c>
+      <c r="N40">
+        <v>0.9904162439377755</v>
+      </c>
+      <c r="O40">
+        <v>0.9888171059475438</v>
+      </c>
+      <c r="P40">
+        <v>0.9956255292475417</v>
+      </c>
+      <c r="Q40">
+        <v>0.9956255292475417</v>
+      </c>
+      <c r="R40">
+        <v>0.9982301719024247</v>
+      </c>
+      <c r="S40">
+        <v>0.9982301719024247</v>
+      </c>
+      <c r="T40">
+        <v>0.999501006103737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9976760054850352</v>
+      </c>
+      <c r="D41">
+        <v>1.001557400989812</v>
+      </c>
+      <c r="E41">
+        <v>0.9996705120636549</v>
+      </c>
+      <c r="F41">
+        <v>0.9993121196501218</v>
+      </c>
+      <c r="G41">
+        <v>1.002618778236703</v>
+      </c>
+      <c r="H41">
+        <v>0.9991646359708654</v>
+      </c>
+      <c r="I41">
+        <v>0.9996705120636549</v>
+      </c>
+      <c r="J41">
+        <v>1.002618778236703</v>
+      </c>
+      <c r="K41">
+        <v>0.9996705120636549</v>
+      </c>
+      <c r="L41">
+        <v>0.9991646359708654</v>
+      </c>
+      <c r="M41">
+        <v>1.000891707103784</v>
+      </c>
+      <c r="N41">
+        <v>1.000891707103784</v>
+      </c>
+      <c r="O41">
+        <v>1.001113605065793</v>
+      </c>
+      <c r="P41">
+        <v>1.000484642090408</v>
+      </c>
+      <c r="Q41">
+        <v>1.000484642090408</v>
+      </c>
+      <c r="R41">
+        <v>1.00028110958372</v>
+      </c>
+      <c r="S41">
+        <v>1.00028110958372</v>
+      </c>
+      <c r="T41">
+        <v>0.9999999087326987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.001947199063878</v>
+      </c>
+      <c r="D42">
+        <v>0.9986444071475228</v>
+      </c>
+      <c r="E42">
+        <v>1.000352416299288</v>
+      </c>
+      <c r="F42">
+        <v>1.000602213636497</v>
+      </c>
+      <c r="G42">
+        <v>0.9976836574779616</v>
+      </c>
+      <c r="H42">
+        <v>1.000705011789267</v>
+      </c>
+      <c r="I42">
+        <v>1.000352416299288</v>
+      </c>
+      <c r="J42">
+        <v>0.9976836574779616</v>
+      </c>
+      <c r="K42">
+        <v>1.000352416299288</v>
+      </c>
+      <c r="L42">
+        <v>1.000705011789267</v>
+      </c>
+      <c r="M42">
+        <v>0.9991943346336143</v>
+      </c>
+      <c r="N42">
+        <v>0.9991943346336143</v>
+      </c>
+      <c r="O42">
+        <v>0.9990110254715838</v>
+      </c>
+      <c r="P42">
+        <v>0.9995803618555056</v>
+      </c>
+      <c r="Q42">
+        <v>0.9995803618555056</v>
+      </c>
+      <c r="R42">
+        <v>0.9997733754664513</v>
+      </c>
+      <c r="S42">
+        <v>0.9997733754664513</v>
+      </c>
+      <c r="T42">
+        <v>0.9999891509024025</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999676496748842</v>
+        <v>1.000016712465768</v>
       </c>
       <c r="D3">
-        <v>1.000425132604155</v>
+        <v>0.9999951223916688</v>
       </c>
       <c r="E3">
-        <v>0.9998526432127123</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="F3">
-        <v>0.9999676496748842</v>
+        <v>1.000001719392221</v>
       </c>
       <c r="G3">
-        <v>0.9995851448923947</v>
+        <v>0.9999964021219445</v>
       </c>
       <c r="H3">
-        <v>1.00026043763021</v>
+        <v>1.00000537225225</v>
       </c>
       <c r="I3">
-        <v>0.9998861707445811</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="J3">
-        <v>1.000425132604155</v>
+        <v>0.9999964021219445</v>
       </c>
       <c r="K3">
-        <v>0.9999676496748842</v>
+        <v>0.9999928496042751</v>
       </c>
       <c r="L3">
-        <v>0.9998526432127123</v>
+        <v>1.00000537225225</v>
       </c>
       <c r="M3">
-        <v>1.000138887908434</v>
+        <v>1.000000887187097</v>
       </c>
       <c r="N3">
-        <v>1.000138887908434</v>
+        <v>1.000000887187097</v>
       </c>
       <c r="O3">
-        <v>1.000179404482359</v>
+        <v>0.9999989655886209</v>
       </c>
       <c r="P3">
-        <v>1.00008180849725</v>
+        <v>0.9999982079928231</v>
       </c>
       <c r="Q3">
-        <v>1.00008180849725</v>
+        <v>0.9999982079928232</v>
       </c>
       <c r="R3">
-        <v>1.000053268791659</v>
+        <v>0.9999968683956862</v>
       </c>
       <c r="S3">
-        <v>1.000053268791659</v>
+        <v>0.9999968683956862</v>
       </c>
       <c r="T3">
-        <v>0.9999961964598229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000001363038021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999404946508784</v>
+        <v>1.017999811066293</v>
       </c>
       <c r="D4">
-        <v>1.000818901668991</v>
+        <v>0.9856188299670804</v>
       </c>
       <c r="E4">
-        <v>0.9997145984479388</v>
+        <v>1.006044099867074</v>
       </c>
       <c r="F4">
-        <v>0.9999404946508784</v>
+        <v>1.006510807846424</v>
       </c>
       <c r="G4">
-        <v>0.9991959013715082</v>
+        <v>0.9741296173160517</v>
       </c>
       <c r="H4">
-        <v>1.000502673350892</v>
+        <v>1.006702870559499</v>
       </c>
       <c r="I4">
-        <v>0.9997804536747621</v>
+        <v>1.006044099867074</v>
       </c>
       <c r="J4">
-        <v>1.000818901668991</v>
+        <v>0.9741296173160517</v>
       </c>
       <c r="K4">
-        <v>0.9999404946508784</v>
+        <v>1.006044099867074</v>
       </c>
       <c r="L4">
-        <v>0.9997145984479388</v>
+        <v>1.006702870559499</v>
       </c>
       <c r="M4">
-        <v>1.000266750058465</v>
+        <v>0.9904162439377755</v>
       </c>
       <c r="N4">
-        <v>1.000266750058465</v>
+        <v>0.9904162439377755</v>
       </c>
       <c r="O4">
-        <v>1.000345391155941</v>
+        <v>0.9888171059475438</v>
       </c>
       <c r="P4">
-        <v>1.000157998255936</v>
+        <v>0.9956255292475417</v>
       </c>
       <c r="Q4">
-        <v>1.000157998255936</v>
+        <v>0.9956255292475417</v>
       </c>
       <c r="R4">
-        <v>1.000103622354672</v>
+        <v>0.9982301719024247</v>
       </c>
       <c r="S4">
-        <v>1.000103622354672</v>
+        <v>0.9982301719024247</v>
       </c>
       <c r="T4">
-        <v>0.9999921705274953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.999501006103737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998635882044581</v>
+        <v>0.9981637471397665</v>
       </c>
       <c r="D5">
-        <v>1.001583090482495</v>
+        <v>1.002218613162825</v>
       </c>
       <c r="E5">
-        <v>0.9994601391169219</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="F5">
-        <v>0.9998635882044581</v>
+        <v>0.9989523703386153</v>
       </c>
       <c r="G5">
-        <v>0.9984835178614565</v>
+        <v>1.004450053451009</v>
       </c>
       <c r="H5">
-        <v>1.000964069447401</v>
+        <v>0.9992407520100851</v>
       </c>
       <c r="I5">
-        <v>0.9995777575009115</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="J5">
-        <v>1.001583090482495</v>
+        <v>1.004450053451009</v>
       </c>
       <c r="K5">
-        <v>0.9998635882044581</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="L5">
-        <v>0.9994601391169219</v>
+        <v>0.9992407520100851</v>
       </c>
       <c r="M5">
-        <v>1.000521614799708</v>
+        <v>1.001845402730547</v>
       </c>
       <c r="N5">
-        <v>1.000521614799708</v>
+        <v>1.001845402730547</v>
       </c>
       <c r="O5">
-        <v>1.000669099682273</v>
+        <v>1.001969806207973</v>
       </c>
       <c r="P5">
-        <v>1.000302272601292</v>
+        <v>1.000647471777137</v>
       </c>
       <c r="Q5">
-        <v>1.000302272601292</v>
+        <v>1.000647471777137</v>
       </c>
       <c r="R5">
-        <v>1.000192601502083</v>
+        <v>1.000048506300431</v>
       </c>
       <c r="S5">
-        <v>1.000192601502083</v>
+        <v>1.000048506300431</v>
       </c>
       <c r="T5">
-        <v>0.9999886937689406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000212857662103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9997893823956886</v>
+        <v>0.9930184880653043</v>
       </c>
       <c r="D6">
-        <v>1.002328388795087</v>
+        <v>1.009374914809477</v>
       </c>
       <c r="E6">
-        <v>0.9992115258503388</v>
+        <v>0.9919373968358289</v>
       </c>
       <c r="F6">
-        <v>0.9997893823956886</v>
+        <v>0.9955374588463285</v>
       </c>
       <c r="G6">
-        <v>0.9977873551350782</v>
+        <v>1.019183524292235</v>
       </c>
       <c r="H6">
-        <v>1.001414337194528</v>
+        <v>0.9970189657391714</v>
       </c>
       <c r="I6">
-        <v>0.9993799917873992</v>
+        <v>0.9919373968358289</v>
       </c>
       <c r="J6">
-        <v>1.002328388795087</v>
+        <v>1.019183524292235</v>
       </c>
       <c r="K6">
-        <v>0.9997893823956886</v>
+        <v>0.9919373968358289</v>
       </c>
       <c r="L6">
-        <v>0.9992115258503388</v>
+        <v>0.9970189657391714</v>
       </c>
       <c r="M6">
-        <v>1.000769957322713</v>
+        <v>1.008101245015703</v>
       </c>
       <c r="N6">
-        <v>1.000769957322713</v>
+        <v>1.008101245015703</v>
       </c>
       <c r="O6">
-        <v>1.000984750613318</v>
+        <v>1.008525801613628</v>
       </c>
       <c r="P6">
-        <v>1.000443099013705</v>
+        <v>1.002713295622412</v>
       </c>
       <c r="Q6">
-        <v>1.000443099013705</v>
+        <v>1.002713295622412</v>
       </c>
       <c r="R6">
-        <v>1.000279669859201</v>
+        <v>1.000019320925766</v>
       </c>
       <c r="S6">
-        <v>1.000279669859201</v>
+        <v>1.000019320925766</v>
       </c>
       <c r="T6">
-        <v>0.9999851635263534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.001011791431391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999901719335804</v>
+        <v>0.9997352097988647</v>
       </c>
       <c r="D7">
-        <v>1.000020713029155</v>
+        <v>1.000112016841004</v>
       </c>
       <c r="E7">
-        <v>0.999997405424268</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="F7">
-        <v>0.9999901719335804</v>
+        <v>0.9999550051800188</v>
       </c>
       <c r="G7">
-        <v>0.9999944605497947</v>
+        <v>1.000140716553519</v>
       </c>
       <c r="H7">
-        <v>1.000009717478147</v>
+        <v>0.9999113891759852</v>
       </c>
       <c r="I7">
-        <v>0.9999952945840511</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="J7">
-        <v>1.000020713029155</v>
+        <v>1.000140716553519</v>
       </c>
       <c r="K7">
-        <v>0.9999901719335804</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="L7">
-        <v>0.999997405424268</v>
+        <v>0.9999113891759852</v>
       </c>
       <c r="M7">
-        <v>1.000009059226712</v>
+        <v>1.000026052864752</v>
       </c>
       <c r="N7">
-        <v>1.000009059226712</v>
+        <v>1.000026052864752</v>
       </c>
       <c r="O7">
-        <v>1.000009278643857</v>
+        <v>1.000054707523503</v>
       </c>
       <c r="P7">
-        <v>1.000002763462335</v>
+        <v>1.000037701338732</v>
       </c>
       <c r="Q7">
-        <v>1.000002763462335</v>
+        <v>1.000037701338732</v>
       </c>
       <c r="R7">
-        <v>0.9999996155801461</v>
+        <v>1.000043525575722</v>
       </c>
       <c r="S7">
-        <v>0.9999996155801461</v>
+        <v>1.000043525575722</v>
       </c>
       <c r="T7">
-        <v>1.000001293833166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999858893060142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999928496042755</v>
+        <v>0.9999406635852379</v>
       </c>
       <c r="D8">
-        <v>0.9999964021219447</v>
+        <v>1.000022061111986</v>
       </c>
       <c r="E8">
-        <v>1.00000537225225</v>
+        <v>1.000018248711243</v>
       </c>
       <c r="F8">
-        <v>0.9999928496042755</v>
+        <v>0.9999914666931237</v>
       </c>
       <c r="G8">
-        <v>1.000016712465768</v>
+        <v>1.000024207286458</v>
       </c>
       <c r="H8">
-        <v>0.9999951223916688</v>
+        <v>0.9999804484415865</v>
       </c>
       <c r="I8">
-        <v>1.000001719392221</v>
+        <v>1.000018248711243</v>
       </c>
       <c r="J8">
-        <v>0.9999964021219447</v>
+        <v>1.000024207286458</v>
       </c>
       <c r="K8">
-        <v>0.9999928496042755</v>
+        <v>1.000018248711243</v>
       </c>
       <c r="L8">
-        <v>1.00000537225225</v>
+        <v>0.9999804484415865</v>
       </c>
       <c r="M8">
-        <v>1.000000887187097</v>
+        <v>1.000002327864022</v>
       </c>
       <c r="N8">
-        <v>1.000000887187097</v>
+        <v>1.000002327864022</v>
       </c>
       <c r="O8">
-        <v>0.9999989655886212</v>
+        <v>1.000008905613343</v>
       </c>
       <c r="P8">
-        <v>0.9999982079928235</v>
+        <v>1.000007634813096</v>
       </c>
       <c r="Q8">
-        <v>0.9999982079928232</v>
+        <v>1.000007634813096</v>
       </c>
       <c r="R8">
-        <v>0.9999968683956864</v>
+        <v>1.000010288287632</v>
       </c>
       <c r="S8">
-        <v>0.9999968683956864</v>
+        <v>1.000010288287632</v>
       </c>
       <c r="T8">
-        <v>1.000001363038021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999961826382725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000004426874503</v>
+        <v>0.9991959013715082</v>
       </c>
       <c r="D9">
-        <v>0.9999705081445442</v>
+        <v>1.000502673350892</v>
       </c>
       <c r="E9">
-        <v>1.000009010290236</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="F9">
-        <v>1.000004426874503</v>
+        <v>0.9997804536747621</v>
       </c>
       <c r="G9">
-        <v>1.00002490069097</v>
+        <v>1.000818901668991</v>
       </c>
       <c r="H9">
-        <v>0.9999827184037154</v>
+        <v>0.9997145984479388</v>
       </c>
       <c r="I9">
-        <v>1.000007671651667</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="J9">
-        <v>0.9999705081445442</v>
+        <v>1.000818901668991</v>
       </c>
       <c r="K9">
-        <v>1.000004426874503</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="L9">
-        <v>1.000009010290236</v>
+        <v>0.9997145984479388</v>
       </c>
       <c r="M9">
-        <v>0.9999897592173902</v>
+        <v>1.000266750058465</v>
       </c>
       <c r="N9">
-        <v>0.9999897592173902</v>
+        <v>1.000266750058465</v>
       </c>
       <c r="O9">
-        <v>0.9999874122794986</v>
+        <v>1.000345391155941</v>
       </c>
       <c r="P9">
-        <v>0.9999946484364278</v>
+        <v>1.000157998255936</v>
       </c>
       <c r="Q9">
-        <v>0.9999946484364278</v>
+        <v>1.000157998255936</v>
       </c>
       <c r="R9">
-        <v>0.9999970930459467</v>
+        <v>1.000103622354672</v>
       </c>
       <c r="S9">
-        <v>0.9999970930459467</v>
+        <v>1.000103622354672</v>
       </c>
       <c r="T9">
-        <v>0.9999998726759394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999921705274953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999921744156768</v>
+        <v>0.9929821782259783</v>
       </c>
       <c r="D10">
-        <v>0.9999643740962935</v>
+        <v>1.009517669317308</v>
       </c>
       <c r="E10">
-        <v>1.000018202536857</v>
+        <v>0.9917539039263077</v>
       </c>
       <c r="F10">
-        <v>0.9999921744156768</v>
+        <v>0.9954662918485951</v>
       </c>
       <c r="G10">
-        <v>1.000053497859648</v>
+        <v>1.019509791854114</v>
       </c>
       <c r="H10">
-        <v>0.9999743825599502</v>
+        <v>0.9969940245087553</v>
       </c>
       <c r="I10">
-        <v>1.000010611475552</v>
+        <v>0.9917539039263077</v>
       </c>
       <c r="J10">
-        <v>0.9999643740962935</v>
+        <v>1.019509791854114</v>
       </c>
       <c r="K10">
-        <v>0.9999921744156768</v>
+        <v>0.9917539039263077</v>
       </c>
       <c r="L10">
-        <v>1.000018202536857</v>
+        <v>0.9969940245087553</v>
       </c>
       <c r="M10">
-        <v>0.9999912883165751</v>
+        <v>1.008251908181435</v>
       </c>
       <c r="N10">
-        <v>0.9999912883165751</v>
+        <v>1.008251908181435</v>
       </c>
       <c r="O10">
-        <v>0.9999856530643668</v>
+        <v>1.008673828560059</v>
       </c>
       <c r="P10">
-        <v>0.9999915836829424</v>
+        <v>1.002752573429726</v>
       </c>
       <c r="Q10">
-        <v>0.9999915836829424</v>
+        <v>1.002752573429726</v>
       </c>
       <c r="R10">
-        <v>0.999991731366126</v>
+        <v>1.000002906053871</v>
       </c>
       <c r="S10">
-        <v>0.999991731366126</v>
+        <v>1.000002906053871</v>
       </c>
       <c r="T10">
-        <v>1.00000220715733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.001037309946843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000034052594363</v>
+        <v>1.012970488933974</v>
       </c>
       <c r="D11">
-        <v>0.9998502997670237</v>
+        <v>0.9892500139483503</v>
       </c>
       <c r="E11">
-        <v>1.000039299704931</v>
+        <v>1.00493823325378</v>
       </c>
       <c r="F11">
-        <v>1.000034052594363</v>
+        <v>1.004889100920922</v>
       </c>
       <c r="G11">
-        <v>1.000105796886436</v>
+        <v>0.9804253923964952</v>
       </c>
       <c r="H11">
-        <v>0.9999164518904283</v>
+        <v>1.004868883818355</v>
       </c>
       <c r="I11">
-        <v>1.000037766315178</v>
+        <v>1.00493823325378</v>
       </c>
       <c r="J11">
-        <v>0.9998502997670237</v>
+        <v>0.9804253923964952</v>
       </c>
       <c r="K11">
-        <v>1.000034052594363</v>
+        <v>1.00493823325378</v>
       </c>
       <c r="L11">
-        <v>1.000039299704931</v>
+        <v>1.004868883818355</v>
       </c>
       <c r="M11">
-        <v>0.9999447997359774</v>
+        <v>0.992647138107425</v>
       </c>
       <c r="N11">
-        <v>0.9999447997359774</v>
+        <v>0.992647138107425</v>
       </c>
       <c r="O11">
-        <v>0.9999353504541277</v>
+        <v>0.9915147633877335</v>
       </c>
       <c r="P11">
-        <v>0.9999745506887724</v>
+        <v>0.9967441698228768</v>
       </c>
       <c r="Q11">
-        <v>0.9999745506887724</v>
+        <v>0.9967441698228768</v>
       </c>
       <c r="R11">
-        <v>0.9999894261651701</v>
+        <v>0.9987926856806028</v>
       </c>
       <c r="S11">
-        <v>0.9999894261651701</v>
+        <v>0.9987926856806028</v>
       </c>
       <c r="T11">
-        <v>0.9999972778597265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.999557018878646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000173421036279</v>
+        <v>0.9984200036105261</v>
       </c>
       <c r="D12">
-        <v>1.007988395317167</v>
+        <v>1.002436313294739</v>
       </c>
       <c r="E12">
-        <v>0.9967970559290056</v>
+        <v>0.9977014556421047</v>
       </c>
       <c r="F12">
-        <v>1.000173421036279</v>
+        <v>0.9988295319684188</v>
       </c>
       <c r="G12">
-        <v>0.9908157064730219</v>
+        <v>1.005099669726317</v>
       </c>
       <c r="H12">
-        <v>1.005175014157324</v>
+        <v>0.9992937648105278</v>
       </c>
       <c r="I12">
-        <v>0.9977814163223373</v>
+        <v>0.9977014556421047</v>
       </c>
       <c r="J12">
-        <v>1.007988395317167</v>
+        <v>1.005099669726317</v>
       </c>
       <c r="K12">
-        <v>1.000173421036279</v>
+        <v>0.9977014556421047</v>
       </c>
       <c r="L12">
-        <v>0.9967970559290056</v>
+        <v>0.9992937648105278</v>
       </c>
       <c r="M12">
-        <v>1.002392725623086</v>
+        <v>1.002196717268423</v>
       </c>
       <c r="N12">
-        <v>1.002392725623086</v>
+        <v>1.002196717268423</v>
       </c>
       <c r="O12">
-        <v>1.003320155134499</v>
+        <v>1.002276582610528</v>
       </c>
       <c r="P12">
-        <v>1.001652957427484</v>
+        <v>1.000698296726316</v>
       </c>
       <c r="Q12">
-        <v>1.001652957427484</v>
+        <v>1.000698296726316</v>
       </c>
       <c r="R12">
-        <v>1.001283073329682</v>
+        <v>0.9999490864552636</v>
       </c>
       <c r="S12">
-        <v>1.001283073329682</v>
+        <v>0.9999490864552636</v>
       </c>
       <c r="T12">
-        <v>0.999788501539189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000296789842106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9982879551372378</v>
+        <v>1.002127710538232</v>
       </c>
       <c r="D13">
-        <v>1.003169771622784</v>
+        <v>0.9981512544560043</v>
       </c>
       <c r="E13">
-        <v>0.9997184477764984</v>
+        <v>1.000938534924359</v>
       </c>
       <c r="F13">
-        <v>0.9982879551372378</v>
+        <v>1.000845533432812</v>
       </c>
       <c r="G13">
-        <v>0.9995216663381363</v>
+        <v>0.9965834082477182</v>
       </c>
       <c r="H13">
-        <v>1.0014123192332</v>
+        <v>1.000807267034171</v>
       </c>
       <c r="I13">
-        <v>0.9993013918100259</v>
+        <v>1.000938534924359</v>
       </c>
       <c r="J13">
-        <v>1.003169771622784</v>
+        <v>0.9965834082477182</v>
       </c>
       <c r="K13">
-        <v>0.9982879551372378</v>
+        <v>1.000938534924359</v>
       </c>
       <c r="L13">
-        <v>0.9997184477764984</v>
+        <v>1.000807267034171</v>
       </c>
       <c r="M13">
-        <v>1.001444109699641</v>
+        <v>0.9986953376409449</v>
       </c>
       <c r="N13">
-        <v>1.001444109699641</v>
+        <v>0.9986953376409449</v>
       </c>
       <c r="O13">
-        <v>1.001433512877494</v>
+        <v>0.998513976579298</v>
       </c>
       <c r="P13">
-        <v>1.00039205817884</v>
+        <v>0.9994430700687497</v>
       </c>
       <c r="Q13">
-        <v>1.00039205817884</v>
+        <v>0.9994430700687497</v>
       </c>
       <c r="R13">
-        <v>0.9998660324184393</v>
+        <v>0.9998169362826521</v>
       </c>
       <c r="S13">
-        <v>0.9998660324184393</v>
+        <v>0.9998169362826521</v>
       </c>
       <c r="T13">
-        <v>1.00023525865298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999089514388828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9918406681397253</v>
+        <v>0.9880462299999999</v>
       </c>
       <c r="D14">
-        <v>1.025276946413416</v>
+        <v>1.016449</v>
       </c>
       <c r="E14">
-        <v>0.9947030378372954</v>
+        <v>0.9855969300000001</v>
       </c>
       <c r="F14">
-        <v>0.9918406681397253</v>
+        <v>0.9921565499999994</v>
       </c>
       <c r="G14">
-        <v>0.9864199826982532</v>
+        <v>1.033803300000001</v>
       </c>
       <c r="H14">
-        <v>1.013239886451313</v>
+        <v>0.9948559799999985</v>
       </c>
       <c r="I14">
-        <v>0.9938685269952762</v>
+        <v>0.9855969300000001</v>
       </c>
       <c r="J14">
-        <v>1.025276946413416</v>
+        <v>1.033803300000001</v>
       </c>
       <c r="K14">
-        <v>0.9918406681397253</v>
+        <v>0.9855969300000001</v>
       </c>
       <c r="L14">
-        <v>0.9947030378372954</v>
+        <v>0.9948559799999985</v>
       </c>
       <c r="M14">
-        <v>1.009989992125356</v>
+        <v>1.01432964</v>
       </c>
       <c r="N14">
-        <v>1.009989992125356</v>
+        <v>1.01432964</v>
       </c>
       <c r="O14">
-        <v>1.011073290234008</v>
+        <v>1.015036093333333</v>
       </c>
       <c r="P14">
-        <v>1.003940217463479</v>
+        <v>1.00475207</v>
       </c>
       <c r="Q14">
-        <v>1.003940217463479</v>
+        <v>1.00475207</v>
       </c>
       <c r="R14">
-        <v>1.000915330132541</v>
+        <v>0.9999632850000001</v>
       </c>
       <c r="S14">
-        <v>1.000915330132541</v>
+        <v>0.9999632850000001</v>
       </c>
       <c r="T14">
-        <v>1.000891508089213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.001817998333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9992406048142195</v>
+        <v>1.0542662</v>
       </c>
       <c r="D15">
-        <v>1.005992520644222</v>
+        <v>0.94244704</v>
       </c>
       <c r="E15">
-        <v>0.9980914665711585</v>
+        <v>1.0396018</v>
       </c>
       <c r="F15">
-        <v>0.9992406048142195</v>
+        <v>1.0268719</v>
       </c>
       <c r="G15">
-        <v>0.9946916969662245</v>
+        <v>0.88779747</v>
       </c>
       <c r="H15">
-        <v>1.003561834144572</v>
+        <v>1.0216333</v>
       </c>
       <c r="I15">
-        <v>0.9984264925585584</v>
+        <v>1.0396018</v>
       </c>
       <c r="J15">
-        <v>1.005992520644222</v>
+        <v>0.88779747</v>
       </c>
       <c r="K15">
-        <v>0.9992406048142195</v>
+        <v>1.0396018</v>
       </c>
       <c r="L15">
-        <v>0.9980914665711585</v>
+        <v>1.0216333</v>
       </c>
       <c r="M15">
-        <v>1.00204199360769</v>
+        <v>0.954715385</v>
       </c>
       <c r="N15">
-        <v>1.00204199360769</v>
+        <v>0.954715385</v>
       </c>
       <c r="O15">
-        <v>1.002548607119984</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P15">
-        <v>1.0011081973432</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q15">
-        <v>1.0011081973432</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R15">
-        <v>1.000641299210955</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S15">
-        <v>1.000641299210955</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T15">
-        <v>1.000000769283159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9954362849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999716016436384</v>
+        <v>1.1321051</v>
       </c>
       <c r="D16">
-        <v>1.000019148909126</v>
+        <v>0.89518499</v>
       </c>
       <c r="E16">
-        <v>1.000008330587633</v>
+        <v>1.0432568</v>
       </c>
       <c r="F16">
-        <v>0.9999716016436384</v>
+        <v>1.047411</v>
       </c>
       <c r="G16">
-        <v>1.000029212484039</v>
+        <v>0.81189461</v>
       </c>
       <c r="H16">
-        <v>1.000002030932869</v>
+        <v>1.0491206</v>
       </c>
       <c r="I16">
-        <v>0.9999976204692184</v>
+        <v>1.0432568</v>
       </c>
       <c r="J16">
-        <v>1.000019148909126</v>
+        <v>0.81189461</v>
       </c>
       <c r="K16">
-        <v>0.9999716016436384</v>
+        <v>1.0432568</v>
       </c>
       <c r="L16">
-        <v>1.000008330587633</v>
+        <v>1.0491206</v>
       </c>
       <c r="M16">
-        <v>1.00001373974838</v>
+        <v>0.930507605</v>
       </c>
       <c r="N16">
-        <v>1.00001373974838</v>
+        <v>0.930507605</v>
       </c>
       <c r="O16">
-        <v>1.000009836809876</v>
+        <v>0.9187333999999999</v>
       </c>
       <c r="P16">
-        <v>0.999999693713466</v>
+        <v>0.9680906699999999</v>
       </c>
       <c r="Q16">
-        <v>0.999999693713466</v>
+        <v>0.9680906699999999</v>
       </c>
       <c r="R16">
-        <v>0.9999926706960091</v>
+        <v>0.9868822024999999</v>
       </c>
       <c r="S16">
-        <v>0.9999926706960091</v>
+        <v>0.9868822024999999</v>
       </c>
       <c r="T16">
-        <v>1.000004657504421</v>
+        <v>0.9964955166666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000018248711243</v>
+        <v>1.0516194</v>
       </c>
       <c r="D17">
-        <v>1.000024207286458</v>
+        <v>0.95986966</v>
       </c>
       <c r="E17">
-        <v>0.9999804484415865</v>
+        <v>1.015659</v>
       </c>
       <c r="F17">
-        <v>1.000018248711243</v>
+        <v>1.0181044</v>
       </c>
       <c r="G17">
-        <v>0.9999406635852379</v>
+        <v>0.92848818</v>
       </c>
       <c r="H17">
-        <v>1.000022061111986</v>
+        <v>1.0191107</v>
       </c>
       <c r="I17">
-        <v>0.9999914666931237</v>
+        <v>1.015659</v>
       </c>
       <c r="J17">
-        <v>1.000024207286458</v>
+        <v>0.92848818</v>
       </c>
       <c r="K17">
-        <v>1.000018248711243</v>
+        <v>1.015659</v>
       </c>
       <c r="L17">
-        <v>0.9999804484415865</v>
+        <v>1.0191107</v>
       </c>
       <c r="M17">
-        <v>1.000002327864022</v>
+        <v>0.97379944</v>
       </c>
       <c r="N17">
-        <v>1.000002327864022</v>
+        <v>0.97379944</v>
       </c>
       <c r="O17">
-        <v>1.000008905613343</v>
+        <v>0.96915618</v>
       </c>
       <c r="P17">
-        <v>1.000007634813096</v>
+        <v>0.9877526266666666</v>
       </c>
       <c r="Q17">
-        <v>1.000007634813096</v>
+        <v>0.9877526266666666</v>
       </c>
       <c r="R17">
-        <v>1.000010288287632</v>
+        <v>0.99472922</v>
       </c>
       <c r="S17">
-        <v>1.000010288287632</v>
+        <v>0.99472922</v>
       </c>
       <c r="T17">
-        <v>0.9999961826382725</v>
+        <v>0.9988085566666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999209358101122</v>
+        <v>0.9911037095890416</v>
       </c>
       <c r="D18">
-        <v>1.000173421725783</v>
+        <v>1.00513403479452</v>
       </c>
       <c r="E18">
-        <v>0.9999764840753486</v>
+        <v>0.9999852756164382</v>
       </c>
       <c r="F18">
-        <v>0.9999209358101122</v>
+        <v>0.9977890890410962</v>
       </c>
       <c r="G18">
-        <v>0.999947870957859</v>
+        <v>1.008030214109589</v>
       </c>
       <c r="H18">
-        <v>1.00008252504251</v>
+        <v>0.9968853142465758</v>
       </c>
       <c r="I18">
-        <v>0.9999602875018688</v>
+        <v>0.9999852756164382</v>
       </c>
       <c r="J18">
-        <v>1.000173421725783</v>
+        <v>1.008030214109589</v>
       </c>
       <c r="K18">
-        <v>0.9999209358101122</v>
+        <v>0.9999852756164382</v>
       </c>
       <c r="L18">
-        <v>0.9999764840753486</v>
+        <v>0.9968853142465758</v>
       </c>
       <c r="M18">
-        <v>1.000074952900566</v>
+        <v>1.002457764178082</v>
       </c>
       <c r="N18">
-        <v>1.000074952900566</v>
+        <v>1.002457764178082</v>
       </c>
       <c r="O18">
-        <v>1.00007747694788</v>
+        <v>1.003349854383562</v>
       </c>
       <c r="P18">
-        <v>1.000023613870415</v>
+        <v>1.001633601324201</v>
       </c>
       <c r="Q18">
-        <v>1.000023613870414</v>
+        <v>1.001633601324201</v>
       </c>
       <c r="R18">
-        <v>0.9999979443553388</v>
+        <v>1.00122151989726</v>
       </c>
       <c r="S18">
-        <v>0.9999979443553388</v>
+        <v>1.00122151989726</v>
       </c>
       <c r="T18">
-        <v>1.00001025418558</v>
+        <v>0.9998212728995434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9997399783408816</v>
+        <v>1.032167996315789</v>
       </c>
       <c r="D19">
-        <v>1.00045229891959</v>
+        <v>0.9775290715789474</v>
       </c>
       <c r="E19">
-        <v>0.9999685616471072</v>
+        <v>1.005936999473684</v>
       </c>
       <c r="F19">
-        <v>0.9997399783408816</v>
+        <v>1.009987661578947</v>
       </c>
       <c r="G19">
-        <v>0.9999597065958683</v>
+        <v>0.9615496178947368</v>
       </c>
       <c r="H19">
-        <v>1.000195866868098</v>
+        <v>1.011654596315789</v>
       </c>
       <c r="I19">
-        <v>0.9999019136075561</v>
+        <v>1.005936999473684</v>
       </c>
       <c r="J19">
-        <v>1.00045229891959</v>
+        <v>0.9615496178947368</v>
       </c>
       <c r="K19">
-        <v>0.9997399783408816</v>
+        <v>1.005936999473684</v>
       </c>
       <c r="L19">
-        <v>0.9999685616471072</v>
+        <v>1.011654596315789</v>
       </c>
       <c r="M19">
-        <v>1.000210430283349</v>
+        <v>0.9866021071052631</v>
       </c>
       <c r="N19">
-        <v>1.000210430283349</v>
+        <v>0.9866021071052631</v>
       </c>
       <c r="O19">
-        <v>1.000205575811599</v>
+        <v>0.9835777619298245</v>
       </c>
       <c r="P19">
-        <v>1.000053612969193</v>
+        <v>0.99304707122807</v>
       </c>
       <c r="Q19">
-        <v>1.000053612969193</v>
+        <v>0.99304707122807</v>
       </c>
       <c r="R19">
-        <v>0.9999752043121152</v>
+        <v>0.9962695532894736</v>
       </c>
       <c r="S19">
-        <v>0.9999752043121152</v>
+        <v>0.9962695532894736</v>
       </c>
       <c r="T19">
-        <v>1.000036387663184</v>
+        <v>0.999804323859649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.044871165263158</v>
+      </c>
+      <c r="D20">
+        <v>0.9615831984210528</v>
+      </c>
+      <c r="E20">
+        <v>1.018932242631579</v>
+      </c>
+      <c r="F20">
+        <v>1.017539986315789</v>
+      </c>
+      <c r="G20">
+        <v>0.929324355263158</v>
+      </c>
+      <c r="H20">
+        <v>1.01696707</v>
+      </c>
+      <c r="I20">
+        <v>1.018932242631579</v>
+      </c>
+      <c r="J20">
+        <v>0.929324355263158</v>
+      </c>
+      <c r="K20">
+        <v>1.018932242631579</v>
+      </c>
+      <c r="L20">
+        <v>1.01696707</v>
+      </c>
+      <c r="M20">
+        <v>0.973145712631579</v>
+      </c>
+      <c r="N20">
+        <v>0.973145712631579</v>
+      </c>
+      <c r="O20">
+        <v>0.9692915412280702</v>
+      </c>
+      <c r="P20">
+        <v>0.9884078892982456</v>
+      </c>
+      <c r="Q20">
+        <v>0.9884078892982456</v>
+      </c>
+      <c r="R20">
+        <v>0.9960389776315789</v>
+      </c>
+      <c r="S20">
+        <v>0.9960389776315789</v>
+      </c>
+      <c r="T20">
+        <v>0.9982030029824561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9864199826982532</v>
+      </c>
+      <c r="D21">
+        <v>1.013239886451313</v>
+      </c>
+      <c r="E21">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="F21">
+        <v>0.9938685269952762</v>
+      </c>
+      <c r="G21">
+        <v>1.025276946413416</v>
+      </c>
+      <c r="H21">
+        <v>0.9947030378372953</v>
+      </c>
+      <c r="I21">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="J21">
+        <v>1.025276946413416</v>
+      </c>
+      <c r="K21">
+        <v>0.9918406681397252</v>
+      </c>
+      <c r="L21">
+        <v>0.9947030378372953</v>
+      </c>
+      <c r="M21">
+        <v>1.009989992125356</v>
+      </c>
+      <c r="N21">
+        <v>1.009989992125356</v>
+      </c>
+      <c r="O21">
+        <v>1.011073290234008</v>
+      </c>
+      <c r="P21">
+        <v>1.003940217463479</v>
+      </c>
+      <c r="Q21">
+        <v>1.003940217463479</v>
+      </c>
+      <c r="R21">
+        <v>1.00091533013254</v>
+      </c>
+      <c r="S21">
+        <v>1.00091533013254</v>
+      </c>
+      <c r="T21">
+        <v>1.000891508089213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9946916969662245</v>
+      </c>
+      <c r="D22">
+        <v>1.003561834144572</v>
+      </c>
+      <c r="E22">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="F22">
+        <v>0.9984264925585583</v>
+      </c>
+      <c r="G22">
+        <v>1.005992520644222</v>
+      </c>
+      <c r="H22">
+        <v>0.9980914665711585</v>
+      </c>
+      <c r="I22">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="J22">
+        <v>1.005992520644222</v>
+      </c>
+      <c r="K22">
+        <v>0.9992406048142194</v>
+      </c>
+      <c r="L22">
+        <v>0.9980914665711585</v>
+      </c>
+      <c r="M22">
+        <v>1.00204199360769</v>
+      </c>
+      <c r="N22">
+        <v>1.00204199360769</v>
+      </c>
+      <c r="O22">
+        <v>1.002548607119984</v>
+      </c>
+      <c r="P22">
+        <v>1.0011081973432</v>
+      </c>
+      <c r="Q22">
+        <v>1.0011081973432</v>
+      </c>
+      <c r="R22">
+        <v>1.000641299210955</v>
+      </c>
+      <c r="S22">
+        <v>1.000641299210955</v>
+      </c>
+      <c r="T22">
+        <v>1.000000769283159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9908157064730219</v>
+      </c>
+      <c r="D23">
+        <v>1.005175014157324</v>
+      </c>
+      <c r="E23">
+        <v>1.000173421036279</v>
+      </c>
+      <c r="F23">
+        <v>0.9977814163223373</v>
+      </c>
+      <c r="G23">
+        <v>1.007988395317166</v>
+      </c>
+      <c r="H23">
+        <v>0.9967970559290056</v>
+      </c>
+      <c r="I23">
+        <v>1.000173421036279</v>
+      </c>
+      <c r="J23">
+        <v>1.007988395317166</v>
+      </c>
+      <c r="K23">
+        <v>1.000173421036279</v>
+      </c>
+      <c r="L23">
+        <v>0.9967970559290056</v>
+      </c>
+      <c r="M23">
+        <v>1.002392725623086</v>
+      </c>
+      <c r="N23">
+        <v>1.002392725623086</v>
+      </c>
+      <c r="O23">
+        <v>1.003320155134499</v>
+      </c>
+      <c r="P23">
+        <v>1.001652957427484</v>
+      </c>
+      <c r="Q23">
+        <v>1.001652957427484</v>
+      </c>
+      <c r="R23">
+        <v>1.001283073329682</v>
+      </c>
+      <c r="S23">
+        <v>1.001283073329682</v>
+      </c>
+      <c r="T23">
+        <v>0.999788501539189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9995216663381363</v>
+      </c>
+      <c r="D24">
+        <v>1.0014123192332</v>
+      </c>
+      <c r="E24">
+        <v>0.9982879551372378</v>
+      </c>
+      <c r="F24">
+        <v>0.9993013918100259</v>
+      </c>
+      <c r="G24">
+        <v>1.003169771622784</v>
+      </c>
+      <c r="H24">
+        <v>0.9997184477764984</v>
+      </c>
+      <c r="I24">
+        <v>0.9982879551372378</v>
+      </c>
+      <c r="J24">
+        <v>1.003169771622784</v>
+      </c>
+      <c r="K24">
+        <v>0.9982879551372378</v>
+      </c>
+      <c r="L24">
+        <v>0.9997184477764984</v>
+      </c>
+      <c r="M24">
+        <v>1.001444109699641</v>
+      </c>
+      <c r="N24">
+        <v>1.001444109699641</v>
+      </c>
+      <c r="O24">
+        <v>1.001433512877494</v>
+      </c>
+      <c r="P24">
+        <v>1.00039205817884</v>
+      </c>
+      <c r="Q24">
+        <v>1.00039205817884</v>
+      </c>
+      <c r="R24">
+        <v>0.9998660324184393</v>
+      </c>
+      <c r="S24">
+        <v>0.9998660324184393</v>
+      </c>
+      <c r="T24">
+        <v>1.00023525865298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.03514791180168</v>
+      </c>
+      <c r="D25">
+        <v>0.9676928132717322</v>
+      </c>
+      <c r="E25">
+        <v>1.01816564592031</v>
+      </c>
+      <c r="F25">
+        <v>1.014869310162101</v>
+      </c>
+      <c r="G25">
+        <v>0.9393018444011211</v>
+      </c>
+      <c r="H25">
+        <v>1.013512803516128</v>
+      </c>
+      <c r="I25">
+        <v>1.01816564592031</v>
+      </c>
+      <c r="J25">
+        <v>0.9393018444011211</v>
+      </c>
+      <c r="K25">
+        <v>1.01816564592031</v>
+      </c>
+      <c r="L25">
+        <v>1.013512803516128</v>
+      </c>
+      <c r="M25">
+        <v>0.9764073239586244</v>
+      </c>
+      <c r="N25">
+        <v>0.9764073239586244</v>
+      </c>
+      <c r="O25">
+        <v>0.9735024870629937</v>
+      </c>
+      <c r="P25">
+        <v>0.9903267646125196</v>
+      </c>
+      <c r="Q25">
+        <v>0.9903267646125196</v>
+      </c>
+      <c r="R25">
+        <v>0.9972864849394671</v>
+      </c>
+      <c r="S25">
+        <v>0.9972864849394671</v>
+      </c>
+      <c r="T25">
+        <v>0.9981150548455121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.011956431293181</v>
+      </c>
+      <c r="D26">
+        <v>0.9915133671684438</v>
+      </c>
+      <c r="E26">
+        <v>1.0024092249217</v>
+      </c>
+      <c r="F26">
+        <v>1.003780893237356</v>
+      </c>
+      <c r="G26">
+        <v>0.9853844479613258</v>
+      </c>
+      <c r="H26">
+        <v>1.004345367982976</v>
+      </c>
+      <c r="I26">
+        <v>1.0024092249217</v>
+      </c>
+      <c r="J26">
+        <v>0.9853844479613258</v>
+      </c>
+      <c r="K26">
+        <v>1.0024092249217</v>
+      </c>
+      <c r="L26">
+        <v>1.004345367982976</v>
+      </c>
+      <c r="M26">
+        <v>0.9948649079721511</v>
+      </c>
+      <c r="N26">
+        <v>0.9948649079721511</v>
+      </c>
+      <c r="O26">
+        <v>0.9937477277042487</v>
+      </c>
+      <c r="P26">
+        <v>0.9973796802886675</v>
+      </c>
+      <c r="Q26">
+        <v>0.9973796802886675</v>
+      </c>
+      <c r="R26">
+        <v>0.9986370664469257</v>
+      </c>
+      <c r="S26">
+        <v>0.9986370664469257</v>
+      </c>
+      <c r="T26">
+        <v>0.9998982887608304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9986534937277541</v>
+      </c>
+      <c r="D27">
+        <v>1.000960741124595</v>
+      </c>
+      <c r="E27">
+        <v>0.9997211344129726</v>
+      </c>
+      <c r="F27">
+        <v>0.9995716517153991</v>
+      </c>
+      <c r="G27">
+        <v>1.001658022828725</v>
+      </c>
+      <c r="H27">
+        <v>0.9995101355632028</v>
+      </c>
+      <c r="I27">
+        <v>0.9997211344129726</v>
+      </c>
+      <c r="J27">
+        <v>1.001658022828725</v>
+      </c>
+      <c r="K27">
+        <v>0.9997211344129726</v>
+      </c>
+      <c r="L27">
+        <v>0.9995101355632028</v>
+      </c>
+      <c r="M27">
+        <v>1.000584079195964</v>
+      </c>
+      <c r="N27">
+        <v>1.000584079195964</v>
+      </c>
+      <c r="O27">
+        <v>1.000709633172175</v>
+      </c>
+      <c r="P27">
+        <v>1.000296430934967</v>
+      </c>
+      <c r="Q27">
+        <v>1.000296430934967</v>
+      </c>
+      <c r="R27">
+        <v>1.000152606804468</v>
+      </c>
+      <c r="S27">
+        <v>1.000152606804468</v>
+      </c>
+      <c r="T27">
+        <v>1.000012529895441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007586561394937</v>
+      </c>
+      <c r="D28">
+        <v>0.993734037843451</v>
+      </c>
+      <c r="E28">
+        <v>1.002855589994121</v>
+      </c>
+      <c r="F28">
+        <v>1.002848547371084</v>
+      </c>
+      <c r="G28">
+        <v>0.9886031531011218</v>
+      </c>
+      <c r="H28">
+        <v>1.002845675674523</v>
+      </c>
+      <c r="I28">
+        <v>1.002855589994121</v>
+      </c>
+      <c r="J28">
+        <v>0.9886031531011218</v>
+      </c>
+      <c r="K28">
+        <v>1.002855589994121</v>
+      </c>
+      <c r="L28">
+        <v>1.002845675674523</v>
+      </c>
+      <c r="M28">
+        <v>0.9957244143878226</v>
+      </c>
+      <c r="N28">
+        <v>0.9957244143878226</v>
+      </c>
+      <c r="O28">
+        <v>0.9950609555396986</v>
+      </c>
+      <c r="P28">
+        <v>0.9981014729232555</v>
+      </c>
+      <c r="Q28">
+        <v>0.9981014729232557</v>
+      </c>
+      <c r="R28">
+        <v>0.9992900021909721</v>
+      </c>
+      <c r="S28">
+        <v>0.9992900021909721</v>
+      </c>
+      <c r="T28">
+        <v>0.9997455942298732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.01018142589651</v>
+      </c>
+      <c r="D29">
+        <v>0.9910463844066713</v>
+      </c>
+      <c r="E29">
+        <v>1.004652301418337</v>
+      </c>
+      <c r="F29">
+        <v>1.004100648216384</v>
+      </c>
+      <c r="G29">
+        <v>0.9833930314165579</v>
+      </c>
+      <c r="H29">
+        <v>1.003873656973762</v>
+      </c>
+      <c r="I29">
+        <v>1.004652301418337</v>
+      </c>
+      <c r="J29">
+        <v>0.9833930314165579</v>
+      </c>
+      <c r="K29">
+        <v>1.004652301418337</v>
+      </c>
+      <c r="L29">
+        <v>1.003873656973762</v>
+      </c>
+      <c r="M29">
+        <v>0.9936333441951597</v>
+      </c>
+      <c r="N29">
+        <v>0.9936333441951597</v>
+      </c>
+      <c r="O29">
+        <v>0.9927710242656635</v>
+      </c>
+      <c r="P29">
+        <v>0.9973063299362187</v>
+      </c>
+      <c r="Q29">
+        <v>0.9973063299362187</v>
+      </c>
+      <c r="R29">
+        <v>0.9991428228067482</v>
+      </c>
+      <c r="S29">
+        <v>0.9991428228067482</v>
+      </c>
+      <c r="T29">
+        <v>0.9995412413880369</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.017999811066293</v>
+        <v>0.9977203701535148</v>
       </c>
       <c r="D4">
-        <v>0.9856188299670804</v>
+        <v>1.002580228214988</v>
       </c>
       <c r="E4">
-        <v>1.006044099867074</v>
+        <v>0.998091625768104</v>
       </c>
       <c r="F4">
-        <v>1.006510807846424</v>
+        <v>0.998788232378311</v>
       </c>
       <c r="G4">
-        <v>0.9741296173160517</v>
+        <v>1.005105067867451</v>
       </c>
       <c r="H4">
-        <v>1.006702870559499</v>
+        <v>0.9990749042943656</v>
       </c>
       <c r="I4">
-        <v>1.006044099867074</v>
+        <v>0.998091625768104</v>
       </c>
       <c r="J4">
-        <v>0.9741296173160517</v>
+        <v>1.005105067867451</v>
       </c>
       <c r="K4">
-        <v>1.006044099867074</v>
+        <v>0.998091625768104</v>
       </c>
       <c r="L4">
-        <v>1.006702870559499</v>
+        <v>0.9990749042943656</v>
       </c>
       <c r="M4">
-        <v>0.9904162439377755</v>
+        <v>1.002089986080908</v>
       </c>
       <c r="N4">
-        <v>0.9904162439377755</v>
+        <v>1.002089986080908</v>
       </c>
       <c r="O4">
-        <v>0.9888171059475438</v>
+        <v>1.002253400125601</v>
       </c>
       <c r="P4">
-        <v>0.9956255292475417</v>
+        <v>1.000757199309974</v>
       </c>
       <c r="Q4">
-        <v>0.9956255292475417</v>
+        <v>1.000757199309973</v>
       </c>
       <c r="R4">
-        <v>0.9982301719024247</v>
+        <v>1.000090805924506</v>
       </c>
       <c r="S4">
-        <v>0.9982301719024247</v>
+        <v>1.000090805924506</v>
       </c>
       <c r="T4">
-        <v>0.999501006103737</v>
+        <v>1.000226738112789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9981637471397665</v>
+        <v>1.049228680471785</v>
       </c>
       <c r="D5">
-        <v>1.002218613162825</v>
+        <v>0.9576564672652298</v>
       </c>
       <c r="E5">
-        <v>0.9982516098703157</v>
+        <v>1.021065982894428</v>
       </c>
       <c r="F5">
-        <v>0.9989523703386153</v>
+        <v>1.019343330393979</v>
       </c>
       <c r="G5">
-        <v>1.004450053451009</v>
+        <v>0.9219886082037362</v>
       </c>
       <c r="H5">
-        <v>0.9992407520100851</v>
+        <v>1.018634450520257</v>
       </c>
       <c r="I5">
-        <v>0.9982516098703157</v>
+        <v>1.021065982894428</v>
       </c>
       <c r="J5">
-        <v>1.004450053451009</v>
+        <v>0.9219886082037362</v>
       </c>
       <c r="K5">
-        <v>0.9982516098703157</v>
+        <v>1.021065982894428</v>
       </c>
       <c r="L5">
-        <v>0.9992407520100851</v>
+        <v>1.018634450520257</v>
       </c>
       <c r="M5">
-        <v>1.001845402730547</v>
+        <v>0.9703115293619968</v>
       </c>
       <c r="N5">
-        <v>1.001845402730547</v>
+        <v>0.9703115293619968</v>
       </c>
       <c r="O5">
-        <v>1.001969806207973</v>
+        <v>0.9660931753297411</v>
       </c>
       <c r="P5">
-        <v>1.000647471777137</v>
+        <v>0.9872296805394738</v>
       </c>
       <c r="Q5">
-        <v>1.000647471777137</v>
+        <v>0.9872296805394738</v>
       </c>
       <c r="R5">
-        <v>1.000048506300431</v>
+        <v>0.9956887561282124</v>
       </c>
       <c r="S5">
-        <v>1.000048506300431</v>
+        <v>0.9956887561282124</v>
       </c>
       <c r="T5">
-        <v>1.000212857662103</v>
+        <v>0.9979862532915692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9930184880653043</v>
+        <v>1.017999811066293</v>
       </c>
       <c r="D6">
-        <v>1.009374914809477</v>
+        <v>0.9856188299670804</v>
       </c>
       <c r="E6">
-        <v>0.9919373968358289</v>
+        <v>1.006044099867074</v>
       </c>
       <c r="F6">
-        <v>0.9955374588463285</v>
+        <v>1.006510807846424</v>
       </c>
       <c r="G6">
-        <v>1.019183524292235</v>
+        <v>0.9741296173160517</v>
       </c>
       <c r="H6">
-        <v>0.9970189657391714</v>
+        <v>1.006702870559499</v>
       </c>
       <c r="I6">
-        <v>0.9919373968358289</v>
+        <v>1.006044099867074</v>
       </c>
       <c r="J6">
-        <v>1.019183524292235</v>
+        <v>0.9741296173160517</v>
       </c>
       <c r="K6">
-        <v>0.9919373968358289</v>
+        <v>1.006044099867074</v>
       </c>
       <c r="L6">
-        <v>0.9970189657391714</v>
+        <v>1.006702870559499</v>
       </c>
       <c r="M6">
-        <v>1.008101245015703</v>
+        <v>0.9904162439377755</v>
       </c>
       <c r="N6">
-        <v>1.008101245015703</v>
+        <v>0.9904162439377755</v>
       </c>
       <c r="O6">
-        <v>1.008525801613628</v>
+        <v>0.9888171059475438</v>
       </c>
       <c r="P6">
-        <v>1.002713295622412</v>
+        <v>0.9956255292475417</v>
       </c>
       <c r="Q6">
-        <v>1.002713295622412</v>
+        <v>0.9956255292475417</v>
       </c>
       <c r="R6">
-        <v>1.000019320925766</v>
+        <v>0.9982301719024247</v>
       </c>
       <c r="S6">
-        <v>1.000019320925766</v>
+        <v>0.9982301719024247</v>
       </c>
       <c r="T6">
-        <v>1.001011791431391</v>
+        <v>0.999501006103737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997352097988647</v>
+        <v>0.9981637471397665</v>
       </c>
       <c r="D7">
-        <v>1.000112016841004</v>
+        <v>1.002218613162825</v>
       </c>
       <c r="E7">
-        <v>1.000060998286693</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="F7">
-        <v>0.9999550051800188</v>
+        <v>0.9989523703386153</v>
       </c>
       <c r="G7">
-        <v>1.000140716553519</v>
+        <v>1.004450053451009</v>
       </c>
       <c r="H7">
-        <v>0.9999113891759852</v>
+        <v>0.9992407520100851</v>
       </c>
       <c r="I7">
-        <v>1.000060998286693</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="J7">
-        <v>1.000140716553519</v>
+        <v>1.004450053451009</v>
       </c>
       <c r="K7">
-        <v>1.000060998286693</v>
+        <v>0.9982516098703157</v>
       </c>
       <c r="L7">
-        <v>0.9999113891759852</v>
+        <v>0.9992407520100851</v>
       </c>
       <c r="M7">
-        <v>1.000026052864752</v>
+        <v>1.001845402730547</v>
       </c>
       <c r="N7">
-        <v>1.000026052864752</v>
+        <v>1.001845402730547</v>
       </c>
       <c r="O7">
-        <v>1.000054707523503</v>
+        <v>1.001969806207973</v>
       </c>
       <c r="P7">
-        <v>1.000037701338732</v>
+        <v>1.000647471777137</v>
       </c>
       <c r="Q7">
-        <v>1.000037701338732</v>
+        <v>1.000647471777137</v>
       </c>
       <c r="R7">
-        <v>1.000043525575722</v>
+        <v>1.000048506300431</v>
       </c>
       <c r="S7">
-        <v>1.000043525575722</v>
+        <v>1.000048506300431</v>
       </c>
       <c r="T7">
-        <v>0.9999858893060142</v>
+        <v>1.000212857662103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999406635852379</v>
+        <v>0.9930184880653043</v>
       </c>
       <c r="D8">
-        <v>1.000022061111986</v>
+        <v>1.009374914809477</v>
       </c>
       <c r="E8">
-        <v>1.000018248711243</v>
+        <v>0.9919373968358289</v>
       </c>
       <c r="F8">
-        <v>0.9999914666931237</v>
+        <v>0.9955374588463285</v>
       </c>
       <c r="G8">
-        <v>1.000024207286458</v>
+        <v>1.019183524292235</v>
       </c>
       <c r="H8">
-        <v>0.9999804484415865</v>
+        <v>0.9970189657391714</v>
       </c>
       <c r="I8">
-        <v>1.000018248711243</v>
+        <v>0.9919373968358289</v>
       </c>
       <c r="J8">
-        <v>1.000024207286458</v>
+        <v>1.019183524292235</v>
       </c>
       <c r="K8">
-        <v>1.000018248711243</v>
+        <v>0.9919373968358289</v>
       </c>
       <c r="L8">
-        <v>0.9999804484415865</v>
+        <v>0.9970189657391714</v>
       </c>
       <c r="M8">
-        <v>1.000002327864022</v>
+        <v>1.008101245015703</v>
       </c>
       <c r="N8">
-        <v>1.000002327864022</v>
+        <v>1.008101245015703</v>
       </c>
       <c r="O8">
-        <v>1.000008905613343</v>
+        <v>1.008525801613628</v>
       </c>
       <c r="P8">
-        <v>1.000007634813096</v>
+        <v>1.002713295622412</v>
       </c>
       <c r="Q8">
-        <v>1.000007634813096</v>
+        <v>1.002713295622412</v>
       </c>
       <c r="R8">
-        <v>1.000010288287632</v>
+        <v>1.000019320925766</v>
       </c>
       <c r="S8">
-        <v>1.000010288287632</v>
+        <v>1.000019320925766</v>
       </c>
       <c r="T8">
-        <v>0.9999961826382725</v>
+        <v>1.001011791431391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9991959013715082</v>
+        <v>0.9997352097988647</v>
       </c>
       <c r="D9">
-        <v>1.000502673350892</v>
+        <v>1.000112016841004</v>
       </c>
       <c r="E9">
-        <v>0.9999404946508784</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="F9">
-        <v>0.9997804536747621</v>
+        <v>0.9999550051800188</v>
       </c>
       <c r="G9">
-        <v>1.000818901668991</v>
+        <v>1.000140716553519</v>
       </c>
       <c r="H9">
-        <v>0.9997145984479388</v>
+        <v>0.9999113891759852</v>
       </c>
       <c r="I9">
-        <v>0.9999404946508784</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="J9">
-        <v>1.000818901668991</v>
+        <v>1.000140716553519</v>
       </c>
       <c r="K9">
-        <v>0.9999404946508784</v>
+        <v>1.000060998286693</v>
       </c>
       <c r="L9">
-        <v>0.9997145984479388</v>
+        <v>0.9999113891759852</v>
       </c>
       <c r="M9">
-        <v>1.000266750058465</v>
+        <v>1.000026052864752</v>
       </c>
       <c r="N9">
-        <v>1.000266750058465</v>
+        <v>1.000026052864752</v>
       </c>
       <c r="O9">
-        <v>1.000345391155941</v>
+        <v>1.000054707523503</v>
       </c>
       <c r="P9">
-        <v>1.000157998255936</v>
+        <v>1.000037701338732</v>
       </c>
       <c r="Q9">
-        <v>1.000157998255936</v>
+        <v>1.000037701338732</v>
       </c>
       <c r="R9">
-        <v>1.000103622354672</v>
+        <v>1.000043525575722</v>
       </c>
       <c r="S9">
-        <v>1.000103622354672</v>
+        <v>1.000043525575722</v>
       </c>
       <c r="T9">
-        <v>0.9999921705274953</v>
+        <v>0.9999858893060142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9929821782259783</v>
+        <v>0.9999406635852379</v>
       </c>
       <c r="D10">
-        <v>1.009517669317308</v>
+        <v>1.000022061111986</v>
       </c>
       <c r="E10">
-        <v>0.9917539039263077</v>
+        <v>1.000018248711243</v>
       </c>
       <c r="F10">
-        <v>0.9954662918485951</v>
+        <v>0.9999914666931237</v>
       </c>
       <c r="G10">
-        <v>1.019509791854114</v>
+        <v>1.000024207286458</v>
       </c>
       <c r="H10">
-        <v>0.9969940245087553</v>
+        <v>0.9999804484415865</v>
       </c>
       <c r="I10">
-        <v>0.9917539039263077</v>
+        <v>1.000018248711243</v>
       </c>
       <c r="J10">
-        <v>1.019509791854114</v>
+        <v>1.000024207286458</v>
       </c>
       <c r="K10">
-        <v>0.9917539039263077</v>
+        <v>1.000018248711243</v>
       </c>
       <c r="L10">
-        <v>0.9969940245087553</v>
+        <v>0.9999804484415865</v>
       </c>
       <c r="M10">
-        <v>1.008251908181435</v>
+        <v>1.000002327864022</v>
       </c>
       <c r="N10">
-        <v>1.008251908181435</v>
+        <v>1.000002327864022</v>
       </c>
       <c r="O10">
-        <v>1.008673828560059</v>
+        <v>1.000008905613343</v>
       </c>
       <c r="P10">
-        <v>1.002752573429726</v>
+        <v>1.000007634813096</v>
       </c>
       <c r="Q10">
-        <v>1.002752573429726</v>
+        <v>1.000007634813096</v>
       </c>
       <c r="R10">
-        <v>1.000002906053871</v>
+        <v>1.000010288287632</v>
       </c>
       <c r="S10">
-        <v>1.000002906053871</v>
+        <v>1.000010288287632</v>
       </c>
       <c r="T10">
-        <v>1.001037309946843</v>
+        <v>0.9999961826382725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.012970488933974</v>
+        <v>0.9991959013715082</v>
       </c>
       <c r="D11">
-        <v>0.9892500139483503</v>
+        <v>1.000502673350892</v>
       </c>
       <c r="E11">
-        <v>1.00493823325378</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="F11">
-        <v>1.004889100920922</v>
+        <v>0.9997804536747621</v>
       </c>
       <c r="G11">
-        <v>0.9804253923964952</v>
+        <v>1.000818901668991</v>
       </c>
       <c r="H11">
-        <v>1.004868883818355</v>
+        <v>0.9997145984479388</v>
       </c>
       <c r="I11">
-        <v>1.00493823325378</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="J11">
-        <v>0.9804253923964952</v>
+        <v>1.000818901668991</v>
       </c>
       <c r="K11">
-        <v>1.00493823325378</v>
+        <v>0.9999404946508784</v>
       </c>
       <c r="L11">
-        <v>1.004868883818355</v>
+        <v>0.9997145984479388</v>
       </c>
       <c r="M11">
-        <v>0.992647138107425</v>
+        <v>1.000266750058465</v>
       </c>
       <c r="N11">
-        <v>0.992647138107425</v>
+        <v>1.000266750058465</v>
       </c>
       <c r="O11">
-        <v>0.9915147633877335</v>
+        <v>1.000345391155941</v>
       </c>
       <c r="P11">
-        <v>0.9967441698228768</v>
+        <v>1.000157998255936</v>
       </c>
       <c r="Q11">
-        <v>0.9967441698228768</v>
+        <v>1.000157998255936</v>
       </c>
       <c r="R11">
-        <v>0.9987926856806028</v>
+        <v>1.000103622354672</v>
       </c>
       <c r="S11">
-        <v>0.9987926856806028</v>
+        <v>1.000103622354672</v>
       </c>
       <c r="T11">
-        <v>0.999557018878646</v>
+        <v>0.9999921705274953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984200036105261</v>
+        <v>0.9929821782259783</v>
       </c>
       <c r="D12">
-        <v>1.002436313294739</v>
+        <v>1.009517669317308</v>
       </c>
       <c r="E12">
-        <v>0.9977014556421047</v>
+        <v>0.9917539039263077</v>
       </c>
       <c r="F12">
-        <v>0.9988295319684188</v>
+        <v>0.9954662918485951</v>
       </c>
       <c r="G12">
-        <v>1.005099669726317</v>
+        <v>1.019509791854114</v>
       </c>
       <c r="H12">
-        <v>0.9992937648105278</v>
+        <v>0.9969940245087553</v>
       </c>
       <c r="I12">
-        <v>0.9977014556421047</v>
+        <v>0.9917539039263077</v>
       </c>
       <c r="J12">
-        <v>1.005099669726317</v>
+        <v>1.019509791854114</v>
       </c>
       <c r="K12">
-        <v>0.9977014556421047</v>
+        <v>0.9917539039263077</v>
       </c>
       <c r="L12">
-        <v>0.9992937648105278</v>
+        <v>0.9969940245087553</v>
       </c>
       <c r="M12">
-        <v>1.002196717268423</v>
+        <v>1.008251908181435</v>
       </c>
       <c r="N12">
-        <v>1.002196717268423</v>
+        <v>1.008251908181435</v>
       </c>
       <c r="O12">
-        <v>1.002276582610528</v>
+        <v>1.008673828560059</v>
       </c>
       <c r="P12">
-        <v>1.000698296726316</v>
+        <v>1.002752573429726</v>
       </c>
       <c r="Q12">
-        <v>1.000698296726316</v>
+        <v>1.002752573429726</v>
       </c>
       <c r="R12">
-        <v>0.9999490864552636</v>
+        <v>1.000002906053871</v>
       </c>
       <c r="S12">
-        <v>0.9999490864552636</v>
+        <v>1.000002906053871</v>
       </c>
       <c r="T12">
-        <v>1.000296789842106</v>
+        <v>1.001037309946843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002127710538232</v>
+        <v>1.012970488933974</v>
       </c>
       <c r="D13">
-        <v>0.9981512544560043</v>
+        <v>0.9892500139483503</v>
       </c>
       <c r="E13">
-        <v>1.000938534924359</v>
+        <v>1.00493823325378</v>
       </c>
       <c r="F13">
-        <v>1.000845533432812</v>
+        <v>1.004889100920922</v>
       </c>
       <c r="G13">
-        <v>0.9965834082477182</v>
+        <v>0.9804253923964952</v>
       </c>
       <c r="H13">
-        <v>1.000807267034171</v>
+        <v>1.004868883818355</v>
       </c>
       <c r="I13">
-        <v>1.000938534924359</v>
+        <v>1.00493823325378</v>
       </c>
       <c r="J13">
-        <v>0.9965834082477182</v>
+        <v>0.9804253923964952</v>
       </c>
       <c r="K13">
-        <v>1.000938534924359</v>
+        <v>1.00493823325378</v>
       </c>
       <c r="L13">
-        <v>1.000807267034171</v>
+        <v>1.004868883818355</v>
       </c>
       <c r="M13">
-        <v>0.9986953376409449</v>
+        <v>0.992647138107425</v>
       </c>
       <c r="N13">
-        <v>0.9986953376409449</v>
+        <v>0.992647138107425</v>
       </c>
       <c r="O13">
-        <v>0.998513976579298</v>
+        <v>0.9915147633877335</v>
       </c>
       <c r="P13">
-        <v>0.9994430700687497</v>
+        <v>0.9967441698228768</v>
       </c>
       <c r="Q13">
-        <v>0.9994430700687497</v>
+        <v>0.9967441698228768</v>
       </c>
       <c r="R13">
-        <v>0.9998169362826521</v>
+        <v>0.9987926856806028</v>
       </c>
       <c r="S13">
-        <v>0.9998169362826521</v>
+        <v>0.9987926856806028</v>
       </c>
       <c r="T13">
-        <v>0.9999089514388828</v>
+        <v>0.999557018878646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9880462299999999</v>
+        <v>0.9984200036105261</v>
       </c>
       <c r="D14">
-        <v>1.016449</v>
+        <v>1.002436313294739</v>
       </c>
       <c r="E14">
-        <v>0.9855969300000001</v>
+        <v>0.9977014556421047</v>
       </c>
       <c r="F14">
-        <v>0.9921565499999994</v>
+        <v>0.9988295319684188</v>
       </c>
       <c r="G14">
-        <v>1.033803300000001</v>
+        <v>1.005099669726317</v>
       </c>
       <c r="H14">
-        <v>0.9948559799999985</v>
+        <v>0.9992937648105278</v>
       </c>
       <c r="I14">
-        <v>0.9855969300000001</v>
+        <v>0.9977014556421047</v>
       </c>
       <c r="J14">
-        <v>1.033803300000001</v>
+        <v>1.005099669726317</v>
       </c>
       <c r="K14">
-        <v>0.9855969300000001</v>
+        <v>0.9977014556421047</v>
       </c>
       <c r="L14">
-        <v>0.9948559799999985</v>
+        <v>0.9992937648105278</v>
       </c>
       <c r="M14">
-        <v>1.01432964</v>
+        <v>1.002196717268423</v>
       </c>
       <c r="N14">
-        <v>1.01432964</v>
+        <v>1.002196717268423</v>
       </c>
       <c r="O14">
-        <v>1.015036093333333</v>
+        <v>1.002276582610528</v>
       </c>
       <c r="P14">
-        <v>1.00475207</v>
+        <v>1.000698296726316</v>
       </c>
       <c r="Q14">
-        <v>1.00475207</v>
+        <v>1.000698296726316</v>
       </c>
       <c r="R14">
-        <v>0.9999632850000001</v>
+        <v>0.9999490864552636</v>
       </c>
       <c r="S14">
-        <v>0.9999632850000001</v>
+        <v>0.9999490864552636</v>
       </c>
       <c r="T14">
-        <v>1.001817998333333</v>
+        <v>1.000296789842106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0542662</v>
+        <v>1.002127710538232</v>
       </c>
       <c r="D15">
-        <v>0.94244704</v>
+        <v>0.9981512544560043</v>
       </c>
       <c r="E15">
-        <v>1.0396018</v>
+        <v>1.000938534924359</v>
       </c>
       <c r="F15">
-        <v>1.0268719</v>
+        <v>1.000845533432812</v>
       </c>
       <c r="G15">
-        <v>0.88779747</v>
+        <v>0.9965834082477182</v>
       </c>
       <c r="H15">
-        <v>1.0216333</v>
+        <v>1.000807267034171</v>
       </c>
       <c r="I15">
-        <v>1.0396018</v>
+        <v>1.000938534924359</v>
       </c>
       <c r="J15">
-        <v>0.88779747</v>
+        <v>0.9965834082477182</v>
       </c>
       <c r="K15">
-        <v>1.0396018</v>
+        <v>1.000938534924359</v>
       </c>
       <c r="L15">
-        <v>1.0216333</v>
+        <v>1.000807267034171</v>
       </c>
       <c r="M15">
-        <v>0.954715385</v>
+        <v>0.9986953376409449</v>
       </c>
       <c r="N15">
-        <v>0.954715385</v>
+        <v>0.9986953376409449</v>
       </c>
       <c r="O15">
-        <v>0.9506259366666666</v>
+        <v>0.998513976579298</v>
       </c>
       <c r="P15">
-        <v>0.9830108566666667</v>
+        <v>0.9994430700687497</v>
       </c>
       <c r="Q15">
-        <v>0.9830108566666667</v>
+        <v>0.9994430700687497</v>
       </c>
       <c r="R15">
-        <v>0.9971585924999999</v>
+        <v>0.9998169362826521</v>
       </c>
       <c r="S15">
-        <v>0.9971585924999999</v>
+        <v>0.9998169362826521</v>
       </c>
       <c r="T15">
-        <v>0.9954362849999999</v>
+        <v>0.9999089514388828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1321051</v>
+        <v>0.9880462299999999</v>
       </c>
       <c r="D16">
-        <v>0.89518499</v>
+        <v>1.016449</v>
       </c>
       <c r="E16">
-        <v>1.0432568</v>
+        <v>0.9855969300000001</v>
       </c>
       <c r="F16">
-        <v>1.047411</v>
+        <v>0.9921565499999994</v>
       </c>
       <c r="G16">
-        <v>0.81189461</v>
+        <v>1.033803300000001</v>
       </c>
       <c r="H16">
-        <v>1.0491206</v>
+        <v>0.9948559799999985</v>
       </c>
       <c r="I16">
-        <v>1.0432568</v>
+        <v>0.9855969300000001</v>
       </c>
       <c r="J16">
-        <v>0.81189461</v>
+        <v>1.033803300000001</v>
       </c>
       <c r="K16">
-        <v>1.0432568</v>
+        <v>0.9855969300000001</v>
       </c>
       <c r="L16">
-        <v>1.0491206</v>
+        <v>0.9948559799999985</v>
       </c>
       <c r="M16">
-        <v>0.930507605</v>
+        <v>1.01432964</v>
       </c>
       <c r="N16">
-        <v>0.930507605</v>
+        <v>1.01432964</v>
       </c>
       <c r="O16">
-        <v>0.9187333999999999</v>
+        <v>1.015036093333333</v>
       </c>
       <c r="P16">
-        <v>0.9680906699999999</v>
+        <v>1.00475207</v>
       </c>
       <c r="Q16">
-        <v>0.9680906699999999</v>
+        <v>1.00475207</v>
       </c>
       <c r="R16">
-        <v>0.9868822024999999</v>
+        <v>0.9999632850000001</v>
       </c>
       <c r="S16">
-        <v>0.9868822024999999</v>
+        <v>0.9999632850000001</v>
       </c>
       <c r="T16">
-        <v>0.9964955166666666</v>
+        <v>1.001817998333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0516194</v>
+        <v>1.0542662</v>
       </c>
       <c r="D17">
-        <v>0.95986966</v>
+        <v>0.94244704</v>
       </c>
       <c r="E17">
-        <v>1.015659</v>
+        <v>1.0396018</v>
       </c>
       <c r="F17">
-        <v>1.0181044</v>
+        <v>1.0268719</v>
       </c>
       <c r="G17">
-        <v>0.92848818</v>
+        <v>0.88779747</v>
       </c>
       <c r="H17">
-        <v>1.0191107</v>
+        <v>1.0216333</v>
       </c>
       <c r="I17">
-        <v>1.015659</v>
+        <v>1.0396018</v>
       </c>
       <c r="J17">
-        <v>0.92848818</v>
+        <v>0.88779747</v>
       </c>
       <c r="K17">
-        <v>1.015659</v>
+        <v>1.0396018</v>
       </c>
       <c r="L17">
-        <v>1.0191107</v>
+        <v>1.0216333</v>
       </c>
       <c r="M17">
-        <v>0.97379944</v>
+        <v>0.954715385</v>
       </c>
       <c r="N17">
-        <v>0.97379944</v>
+        <v>0.954715385</v>
       </c>
       <c r="O17">
-        <v>0.96915618</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P17">
-        <v>0.9877526266666666</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q17">
-        <v>0.9877526266666666</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R17">
-        <v>0.99472922</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S17">
-        <v>0.99472922</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T17">
-        <v>0.9988085566666666</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9911037095890416</v>
+        <v>1.1321051</v>
       </c>
       <c r="D18">
-        <v>1.00513403479452</v>
+        <v>0.89518499</v>
       </c>
       <c r="E18">
-        <v>0.9999852756164382</v>
+        <v>1.0432568</v>
       </c>
       <c r="F18">
-        <v>0.9977890890410962</v>
+        <v>1.047411</v>
       </c>
       <c r="G18">
-        <v>1.008030214109589</v>
+        <v>0.81189461</v>
       </c>
       <c r="H18">
-        <v>0.9968853142465758</v>
+        <v>1.0491206</v>
       </c>
       <c r="I18">
-        <v>0.9999852756164382</v>
+        <v>1.0432568</v>
       </c>
       <c r="J18">
-        <v>1.008030214109589</v>
+        <v>0.81189461</v>
       </c>
       <c r="K18">
-        <v>0.9999852756164382</v>
+        <v>1.0432568</v>
       </c>
       <c r="L18">
-        <v>0.9968853142465758</v>
+        <v>1.0491206</v>
       </c>
       <c r="M18">
-        <v>1.002457764178082</v>
+        <v>0.930507605</v>
       </c>
       <c r="N18">
-        <v>1.002457764178082</v>
+        <v>0.930507605</v>
       </c>
       <c r="O18">
-        <v>1.003349854383562</v>
+        <v>0.9187333999999999</v>
       </c>
       <c r="P18">
-        <v>1.001633601324201</v>
+        <v>0.9680906699999999</v>
       </c>
       <c r="Q18">
-        <v>1.001633601324201</v>
+        <v>0.9680906699999999</v>
       </c>
       <c r="R18">
-        <v>1.00122151989726</v>
+        <v>0.9868822024999999</v>
       </c>
       <c r="S18">
-        <v>1.00122151989726</v>
+        <v>0.9868822024999999</v>
       </c>
       <c r="T18">
-        <v>0.9998212728995434</v>
+        <v>0.9964955166666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.032167996315789</v>
+        <v>1.0516194</v>
       </c>
       <c r="D19">
-        <v>0.9775290715789474</v>
+        <v>0.95986966</v>
       </c>
       <c r="E19">
-        <v>1.005936999473684</v>
+        <v>1.015659</v>
       </c>
       <c r="F19">
-        <v>1.009987661578947</v>
+        <v>1.0181044</v>
       </c>
       <c r="G19">
-        <v>0.9615496178947368</v>
+        <v>0.92848818</v>
       </c>
       <c r="H19">
-        <v>1.011654596315789</v>
+        <v>1.0191107</v>
       </c>
       <c r="I19">
-        <v>1.005936999473684</v>
+        <v>1.015659</v>
       </c>
       <c r="J19">
-        <v>0.9615496178947368</v>
+        <v>0.92848818</v>
       </c>
       <c r="K19">
-        <v>1.005936999473684</v>
+        <v>1.015659</v>
       </c>
       <c r="L19">
-        <v>1.011654596315789</v>
+        <v>1.0191107</v>
       </c>
       <c r="M19">
-        <v>0.9866021071052631</v>
+        <v>0.97379944</v>
       </c>
       <c r="N19">
-        <v>0.9866021071052631</v>
+        <v>0.97379944</v>
       </c>
       <c r="O19">
-        <v>0.9835777619298245</v>
+        <v>0.96915618</v>
       </c>
       <c r="P19">
-        <v>0.99304707122807</v>
+        <v>0.9877526266666666</v>
       </c>
       <c r="Q19">
-        <v>0.99304707122807</v>
+        <v>0.9877526266666666</v>
       </c>
       <c r="R19">
-        <v>0.9962695532894736</v>
+        <v>0.99472922</v>
       </c>
       <c r="S19">
-        <v>0.9962695532894736</v>
+        <v>0.99472922</v>
       </c>
       <c r="T19">
-        <v>0.999804323859649</v>
+        <v>0.9988085566666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.044871165263158</v>
+        <v>0.9911037095890416</v>
       </c>
       <c r="D20">
-        <v>0.9615831984210528</v>
+        <v>1.00513403479452</v>
       </c>
       <c r="E20">
-        <v>1.018932242631579</v>
+        <v>0.9999852756164382</v>
       </c>
       <c r="F20">
-        <v>1.017539986315789</v>
+        <v>0.9977890890410962</v>
       </c>
       <c r="G20">
-        <v>0.929324355263158</v>
+        <v>1.008030214109589</v>
       </c>
       <c r="H20">
-        <v>1.01696707</v>
+        <v>0.9968853142465758</v>
       </c>
       <c r="I20">
-        <v>1.018932242631579</v>
+        <v>0.9999852756164382</v>
       </c>
       <c r="J20">
-        <v>0.929324355263158</v>
+        <v>1.008030214109589</v>
       </c>
       <c r="K20">
-        <v>1.018932242631579</v>
+        <v>0.9999852756164382</v>
       </c>
       <c r="L20">
-        <v>1.01696707</v>
+        <v>0.9968853142465758</v>
       </c>
       <c r="M20">
-        <v>0.973145712631579</v>
+        <v>1.002457764178082</v>
       </c>
       <c r="N20">
-        <v>0.973145712631579</v>
+        <v>1.002457764178082</v>
       </c>
       <c r="O20">
-        <v>0.9692915412280702</v>
+        <v>1.003349854383562</v>
       </c>
       <c r="P20">
-        <v>0.9884078892982456</v>
+        <v>1.001633601324201</v>
       </c>
       <c r="Q20">
-        <v>0.9884078892982456</v>
+        <v>1.001633601324201</v>
       </c>
       <c r="R20">
-        <v>0.9960389776315789</v>
+        <v>1.00122151989726</v>
       </c>
       <c r="S20">
-        <v>0.9960389776315789</v>
+        <v>1.00122151989726</v>
       </c>
       <c r="T20">
-        <v>0.9982030029824561</v>
+        <v>0.9998212728995434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9864199826982532</v>
+        <v>1.032167996315789</v>
       </c>
       <c r="D21">
-        <v>1.013239886451313</v>
+        <v>0.9775290715789474</v>
       </c>
       <c r="E21">
-        <v>0.9918406681397252</v>
+        <v>1.005936999473684</v>
       </c>
       <c r="F21">
-        <v>0.9938685269952762</v>
+        <v>1.009987661578947</v>
       </c>
       <c r="G21">
-        <v>1.025276946413416</v>
+        <v>0.9615496178947368</v>
       </c>
       <c r="H21">
-        <v>0.9947030378372953</v>
+        <v>1.011654596315789</v>
       </c>
       <c r="I21">
-        <v>0.9918406681397252</v>
+        <v>1.005936999473684</v>
       </c>
       <c r="J21">
-        <v>1.025276946413416</v>
+        <v>0.9615496178947368</v>
       </c>
       <c r="K21">
-        <v>0.9918406681397252</v>
+        <v>1.005936999473684</v>
       </c>
       <c r="L21">
-        <v>0.9947030378372953</v>
+        <v>1.011654596315789</v>
       </c>
       <c r="M21">
-        <v>1.009989992125356</v>
+        <v>0.9866021071052631</v>
       </c>
       <c r="N21">
-        <v>1.009989992125356</v>
+        <v>0.9866021071052631</v>
       </c>
       <c r="O21">
-        <v>1.011073290234008</v>
+        <v>0.9835777619298245</v>
       </c>
       <c r="P21">
-        <v>1.003940217463479</v>
+        <v>0.99304707122807</v>
       </c>
       <c r="Q21">
-        <v>1.003940217463479</v>
+        <v>0.99304707122807</v>
       </c>
       <c r="R21">
-        <v>1.00091533013254</v>
+        <v>0.9962695532894736</v>
       </c>
       <c r="S21">
-        <v>1.00091533013254</v>
+        <v>0.9962695532894736</v>
       </c>
       <c r="T21">
-        <v>1.000891508089213</v>
+        <v>0.999804323859649</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9946916969662245</v>
+        <v>1.044871165263158</v>
       </c>
       <c r="D22">
-        <v>1.003561834144572</v>
+        <v>0.9615831984210528</v>
       </c>
       <c r="E22">
-        <v>0.9992406048142194</v>
+        <v>1.018932242631579</v>
       </c>
       <c r="F22">
-        <v>0.9984264925585583</v>
+        <v>1.017539986315789</v>
       </c>
       <c r="G22">
-        <v>1.005992520644222</v>
+        <v>0.929324355263158</v>
       </c>
       <c r="H22">
-        <v>0.9980914665711585</v>
+        <v>1.01696707</v>
       </c>
       <c r="I22">
-        <v>0.9992406048142194</v>
+        <v>1.018932242631579</v>
       </c>
       <c r="J22">
-        <v>1.005992520644222</v>
+        <v>0.929324355263158</v>
       </c>
       <c r="K22">
-        <v>0.9992406048142194</v>
+        <v>1.018932242631579</v>
       </c>
       <c r="L22">
-        <v>0.9980914665711585</v>
+        <v>1.01696707</v>
       </c>
       <c r="M22">
-        <v>1.00204199360769</v>
+        <v>0.973145712631579</v>
       </c>
       <c r="N22">
-        <v>1.00204199360769</v>
+        <v>0.973145712631579</v>
       </c>
       <c r="O22">
-        <v>1.002548607119984</v>
+        <v>0.9692915412280702</v>
       </c>
       <c r="P22">
-        <v>1.0011081973432</v>
+        <v>0.9884078892982456</v>
       </c>
       <c r="Q22">
-        <v>1.0011081973432</v>
+        <v>0.9884078892982456</v>
       </c>
       <c r="R22">
-        <v>1.000641299210955</v>
+        <v>0.9960389776315789</v>
       </c>
       <c r="S22">
-        <v>1.000641299210955</v>
+        <v>0.9960389776315789</v>
       </c>
       <c r="T22">
-        <v>1.000000769283159</v>
+        <v>0.9982030029824561</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9908157064730219</v>
+        <v>0.9864199826982532</v>
       </c>
       <c r="D23">
-        <v>1.005175014157324</v>
+        <v>1.013239886451313</v>
       </c>
       <c r="E23">
-        <v>1.000173421036279</v>
+        <v>0.9918406681397252</v>
       </c>
       <c r="F23">
-        <v>0.9977814163223373</v>
+        <v>0.9938685269952762</v>
       </c>
       <c r="G23">
-        <v>1.007988395317166</v>
+        <v>1.025276946413416</v>
       </c>
       <c r="H23">
-        <v>0.9967970559290056</v>
+        <v>0.9947030378372953</v>
       </c>
       <c r="I23">
-        <v>1.000173421036279</v>
+        <v>0.9918406681397252</v>
       </c>
       <c r="J23">
-        <v>1.007988395317166</v>
+        <v>1.025276946413416</v>
       </c>
       <c r="K23">
-        <v>1.000173421036279</v>
+        <v>0.9918406681397252</v>
       </c>
       <c r="L23">
-        <v>0.9967970559290056</v>
+        <v>0.9947030378372953</v>
       </c>
       <c r="M23">
-        <v>1.002392725623086</v>
+        <v>1.009989992125356</v>
       </c>
       <c r="N23">
-        <v>1.002392725623086</v>
+        <v>1.009989992125356</v>
       </c>
       <c r="O23">
-        <v>1.003320155134499</v>
+        <v>1.011073290234008</v>
       </c>
       <c r="P23">
-        <v>1.001652957427484</v>
+        <v>1.003940217463479</v>
       </c>
       <c r="Q23">
-        <v>1.001652957427484</v>
+        <v>1.003940217463479</v>
       </c>
       <c r="R23">
-        <v>1.001283073329682</v>
+        <v>1.00091533013254</v>
       </c>
       <c r="S23">
-        <v>1.001283073329682</v>
+        <v>1.00091533013254</v>
       </c>
       <c r="T23">
-        <v>0.999788501539189</v>
+        <v>1.000891508089213</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9995216663381363</v>
+        <v>0.9946916969662245</v>
       </c>
       <c r="D24">
-        <v>1.0014123192332</v>
+        <v>1.003561834144572</v>
       </c>
       <c r="E24">
-        <v>0.9982879551372378</v>
+        <v>0.9992406048142194</v>
       </c>
       <c r="F24">
-        <v>0.9993013918100259</v>
+        <v>0.9984264925585583</v>
       </c>
       <c r="G24">
-        <v>1.003169771622784</v>
+        <v>1.005992520644222</v>
       </c>
       <c r="H24">
-        <v>0.9997184477764984</v>
+        <v>0.9980914665711585</v>
       </c>
       <c r="I24">
-        <v>0.9982879551372378</v>
+        <v>0.9992406048142194</v>
       </c>
       <c r="J24">
-        <v>1.003169771622784</v>
+        <v>1.005992520644222</v>
       </c>
       <c r="K24">
-        <v>0.9982879551372378</v>
+        <v>0.9992406048142194</v>
       </c>
       <c r="L24">
-        <v>0.9997184477764984</v>
+        <v>0.9980914665711585</v>
       </c>
       <c r="M24">
-        <v>1.001444109699641</v>
+        <v>1.00204199360769</v>
       </c>
       <c r="N24">
-        <v>1.001444109699641</v>
+        <v>1.00204199360769</v>
       </c>
       <c r="O24">
-        <v>1.001433512877494</v>
+        <v>1.002548607119984</v>
       </c>
       <c r="P24">
-        <v>1.00039205817884</v>
+        <v>1.0011081973432</v>
       </c>
       <c r="Q24">
-        <v>1.00039205817884</v>
+        <v>1.0011081973432</v>
       </c>
       <c r="R24">
-        <v>0.9998660324184393</v>
+        <v>1.000641299210955</v>
       </c>
       <c r="S24">
-        <v>0.9998660324184393</v>
+        <v>1.000641299210955</v>
       </c>
       <c r="T24">
-        <v>1.00023525865298</v>
+        <v>1.000000769283159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.03514791180168</v>
+        <v>0.9908157064730219</v>
       </c>
       <c r="D25">
-        <v>0.9676928132717322</v>
+        <v>1.005175014157324</v>
       </c>
       <c r="E25">
-        <v>1.01816564592031</v>
+        <v>1.000173421036279</v>
       </c>
       <c r="F25">
-        <v>1.014869310162101</v>
+        <v>0.9977814163223373</v>
       </c>
       <c r="G25">
-        <v>0.9393018444011211</v>
+        <v>1.007988395317166</v>
       </c>
       <c r="H25">
-        <v>1.013512803516128</v>
+        <v>0.9967970559290056</v>
       </c>
       <c r="I25">
-        <v>1.01816564592031</v>
+        <v>1.000173421036279</v>
       </c>
       <c r="J25">
-        <v>0.9393018444011211</v>
+        <v>1.007988395317166</v>
       </c>
       <c r="K25">
-        <v>1.01816564592031</v>
+        <v>1.000173421036279</v>
       </c>
       <c r="L25">
-        <v>1.013512803516128</v>
+        <v>0.9967970559290056</v>
       </c>
       <c r="M25">
-        <v>0.9764073239586244</v>
+        <v>1.002392725623086</v>
       </c>
       <c r="N25">
-        <v>0.9764073239586244</v>
+        <v>1.002392725623086</v>
       </c>
       <c r="O25">
-        <v>0.9735024870629937</v>
+        <v>1.003320155134499</v>
       </c>
       <c r="P25">
-        <v>0.9903267646125196</v>
+        <v>1.001652957427484</v>
       </c>
       <c r="Q25">
-        <v>0.9903267646125196</v>
+        <v>1.001652957427484</v>
       </c>
       <c r="R25">
-        <v>0.9972864849394671</v>
+        <v>1.001283073329682</v>
       </c>
       <c r="S25">
-        <v>0.9972864849394671</v>
+        <v>1.001283073329682</v>
       </c>
       <c r="T25">
-        <v>0.9981150548455121</v>
+        <v>0.999788501539189</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.011956431293181</v>
+        <v>0.9995216663381363</v>
       </c>
       <c r="D26">
-        <v>0.9915133671684438</v>
+        <v>1.0014123192332</v>
       </c>
       <c r="E26">
-        <v>1.0024092249217</v>
+        <v>0.9982879551372378</v>
       </c>
       <c r="F26">
-        <v>1.003780893237356</v>
+        <v>0.9993013918100259</v>
       </c>
       <c r="G26">
-        <v>0.9853844479613258</v>
+        <v>1.003169771622784</v>
       </c>
       <c r="H26">
-        <v>1.004345367982976</v>
+        <v>0.9997184477764984</v>
       </c>
       <c r="I26">
-        <v>1.0024092249217</v>
+        <v>0.9982879551372378</v>
       </c>
       <c r="J26">
-        <v>0.9853844479613258</v>
+        <v>1.003169771622784</v>
       </c>
       <c r="K26">
-        <v>1.0024092249217</v>
+        <v>0.9982879551372378</v>
       </c>
       <c r="L26">
-        <v>1.004345367982976</v>
+        <v>0.9997184477764984</v>
       </c>
       <c r="M26">
-        <v>0.9948649079721511</v>
+        <v>1.001444109699641</v>
       </c>
       <c r="N26">
-        <v>0.9948649079721511</v>
+        <v>1.001444109699641</v>
       </c>
       <c r="O26">
-        <v>0.9937477277042487</v>
+        <v>1.001433512877494</v>
       </c>
       <c r="P26">
-        <v>0.9973796802886675</v>
+        <v>1.00039205817884</v>
       </c>
       <c r="Q26">
-        <v>0.9973796802886675</v>
+        <v>1.00039205817884</v>
       </c>
       <c r="R26">
-        <v>0.9986370664469257</v>
+        <v>0.9998660324184393</v>
       </c>
       <c r="S26">
-        <v>0.9986370664469257</v>
+        <v>0.9998660324184393</v>
       </c>
       <c r="T26">
-        <v>0.9998982887608304</v>
+        <v>1.00023525865298</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9986534937277541</v>
+        <v>1.03514791180168</v>
       </c>
       <c r="D27">
-        <v>1.000960741124595</v>
+        <v>0.9676928132717322</v>
       </c>
       <c r="E27">
-        <v>0.9997211344129726</v>
+        <v>1.01816564592031</v>
       </c>
       <c r="F27">
-        <v>0.9995716517153991</v>
+        <v>1.014869310162101</v>
       </c>
       <c r="G27">
-        <v>1.001658022828725</v>
+        <v>0.9393018444011211</v>
       </c>
       <c r="H27">
-        <v>0.9995101355632028</v>
+        <v>1.013512803516128</v>
       </c>
       <c r="I27">
-        <v>0.9997211344129726</v>
+        <v>1.01816564592031</v>
       </c>
       <c r="J27">
-        <v>1.001658022828725</v>
+        <v>0.9393018444011211</v>
       </c>
       <c r="K27">
-        <v>0.9997211344129726</v>
+        <v>1.01816564592031</v>
       </c>
       <c r="L27">
-        <v>0.9995101355632028</v>
+        <v>1.013512803516128</v>
       </c>
       <c r="M27">
-        <v>1.000584079195964</v>
+        <v>0.9764073239586244</v>
       </c>
       <c r="N27">
-        <v>1.000584079195964</v>
+        <v>0.9764073239586244</v>
       </c>
       <c r="O27">
-        <v>1.000709633172175</v>
+        <v>0.9735024870629937</v>
       </c>
       <c r="P27">
-        <v>1.000296430934967</v>
+        <v>0.9903267646125196</v>
       </c>
       <c r="Q27">
-        <v>1.000296430934967</v>
+        <v>0.9903267646125196</v>
       </c>
       <c r="R27">
-        <v>1.000152606804468</v>
+        <v>0.9972864849394671</v>
       </c>
       <c r="S27">
-        <v>1.000152606804468</v>
+        <v>0.9972864849394671</v>
       </c>
       <c r="T27">
-        <v>1.000012529895441</v>
+        <v>0.9981150548455121</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.007586561394937</v>
+        <v>1.011956431293181</v>
       </c>
       <c r="D28">
-        <v>0.993734037843451</v>
+        <v>0.9915133671684438</v>
       </c>
       <c r="E28">
-        <v>1.002855589994121</v>
+        <v>1.0024092249217</v>
       </c>
       <c r="F28">
-        <v>1.002848547371084</v>
+        <v>1.003780893237356</v>
       </c>
       <c r="G28">
-        <v>0.9886031531011218</v>
+        <v>0.9853844479613258</v>
       </c>
       <c r="H28">
-        <v>1.002845675674523</v>
+        <v>1.004345367982976</v>
       </c>
       <c r="I28">
-        <v>1.002855589994121</v>
+        <v>1.0024092249217</v>
       </c>
       <c r="J28">
-        <v>0.9886031531011218</v>
+        <v>0.9853844479613258</v>
       </c>
       <c r="K28">
-        <v>1.002855589994121</v>
+        <v>1.0024092249217</v>
       </c>
       <c r="L28">
-        <v>1.002845675674523</v>
+        <v>1.004345367982976</v>
       </c>
       <c r="M28">
-        <v>0.9957244143878226</v>
+        <v>0.9948649079721511</v>
       </c>
       <c r="N28">
-        <v>0.9957244143878226</v>
+        <v>0.9948649079721511</v>
       </c>
       <c r="O28">
-        <v>0.9950609555396986</v>
+        <v>0.9937477277042487</v>
       </c>
       <c r="P28">
-        <v>0.9981014729232555</v>
+        <v>0.9973796802886675</v>
       </c>
       <c r="Q28">
-        <v>0.9981014729232557</v>
+        <v>0.9973796802886675</v>
       </c>
       <c r="R28">
-        <v>0.9992900021909721</v>
+        <v>0.9986370664469257</v>
       </c>
       <c r="S28">
-        <v>0.9992900021909721</v>
+        <v>0.9986370664469257</v>
       </c>
       <c r="T28">
-        <v>0.9997455942298732</v>
+        <v>0.9998982887608304</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9986534937277541</v>
+      </c>
+      <c r="D29">
+        <v>1.000960741124595</v>
+      </c>
+      <c r="E29">
+        <v>0.9997211344129726</v>
+      </c>
+      <c r="F29">
+        <v>0.9995716517153991</v>
+      </c>
+      <c r="G29">
+        <v>1.001658022828725</v>
+      </c>
+      <c r="H29">
+        <v>0.9995101355632028</v>
+      </c>
+      <c r="I29">
+        <v>0.9997211344129726</v>
+      </c>
+      <c r="J29">
+        <v>1.001658022828725</v>
+      </c>
+      <c r="K29">
+        <v>0.9997211344129726</v>
+      </c>
+      <c r="L29">
+        <v>0.9995101355632028</v>
+      </c>
+      <c r="M29">
+        <v>1.000584079195964</v>
+      </c>
+      <c r="N29">
+        <v>1.000584079195964</v>
+      </c>
+      <c r="O29">
+        <v>1.000709633172175</v>
+      </c>
+      <c r="P29">
+        <v>1.000296430934967</v>
+      </c>
+      <c r="Q29">
+        <v>1.000296430934967</v>
+      </c>
+      <c r="R29">
+        <v>1.000152606804468</v>
+      </c>
+      <c r="S29">
+        <v>1.000152606804468</v>
+      </c>
+      <c r="T29">
+        <v>1.000012529895441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007586561394937</v>
+      </c>
+      <c r="D30">
+        <v>0.993734037843451</v>
+      </c>
+      <c r="E30">
+        <v>1.002855589994121</v>
+      </c>
+      <c r="F30">
+        <v>1.002848547371084</v>
+      </c>
+      <c r="G30">
+        <v>0.9886031531011218</v>
+      </c>
+      <c r="H30">
+        <v>1.002845675674523</v>
+      </c>
+      <c r="I30">
+        <v>1.002855589994121</v>
+      </c>
+      <c r="J30">
+        <v>0.9886031531011218</v>
+      </c>
+      <c r="K30">
+        <v>1.002855589994121</v>
+      </c>
+      <c r="L30">
+        <v>1.002845675674523</v>
+      </c>
+      <c r="M30">
+        <v>0.9957244143878226</v>
+      </c>
+      <c r="N30">
+        <v>0.9957244143878226</v>
+      </c>
+      <c r="O30">
+        <v>0.9950609555396986</v>
+      </c>
+      <c r="P30">
+        <v>0.9981014729232555</v>
+      </c>
+      <c r="Q30">
+        <v>0.9981014729232557</v>
+      </c>
+      <c r="R30">
+        <v>0.9992900021909721</v>
+      </c>
+      <c r="S30">
+        <v>0.9992900021909721</v>
+      </c>
+      <c r="T30">
+        <v>0.9997455942298732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.01018142589651</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9910463844066713</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.004652301418337</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.004100648216384</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9833930314165579</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.003873656973762</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.004652301418337</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9833930314165579</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.004652301418337</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.003873656973762</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9936333441951597</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9936333441951597</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9927710242656635</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9973063299362187</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9973063299362187</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9991428228067482</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9991428228067482</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9995412413880369</v>
       </c>
     </row>
